--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_3_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1223910.919860417</v>
+        <v>-1224628.891702766</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>775706.6456550157</v>
+        <v>775706.6456550147</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673424</v>
+        <v>603248.4937673417</v>
       </c>
     </row>
     <row r="9">
@@ -656,76 +656,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>16.69283417477805</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="G2" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="H2" t="n">
-        <v>26.92232807701203</v>
-      </c>
-      <c r="I2" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,25 +738,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.12502610536668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>19.93169026592149</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>19.93169026592149</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G5" t="n">
+        <v>38.87161743162454</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="H5" t="n">
-        <v>31.9955716899131</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,10 +1026,10 @@
         <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>42.20118209180436</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>214.0077506398264</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>30.9518491405796</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>152.8155841186202</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>27.71080925759648</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>237.2440022494457</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>226.6541520991211</v>
       </c>
       <c r="E11" t="n">
-        <v>253.9014805506998</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>286.8878788988219</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4931066025835</v>
+        <v>207.4931066025836</v>
       </c>
       <c r="I11" t="n">
-        <v>67.56692652344456</v>
+        <v>67.56692652344471</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>93.37738033029572</v>
       </c>
       <c r="U11" t="n">
-        <v>123.2858858586944</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>199.7233689485729</v>
+        <v>199.7233689485731</v>
       </c>
       <c r="W11" t="n">
-        <v>221.212079195851</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>241.7022111569071</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.77256607312918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>38.50429412830536</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>44.67960946675376</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>19.41617604307677</v>
+        <v>19.41617604307692</v>
       </c>
       <c r="E12" t="n">
-        <v>29.61619093383896</v>
+        <v>29.61619093383911</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>17.04032287182204</v>
       </c>
       <c r="G12" t="n">
-        <v>9.108115969867336</v>
+        <v>9.108115969867479</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>82.28647222210212</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.03441564803109</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>167.8473073757945</v>
+        <v>39.81841785423263</v>
       </c>
       <c r="T12" t="n">
         <v>199.3323417370715</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9277957867787</v>
+        <v>181.2197941353485</v>
       </c>
       <c r="V12" t="n">
-        <v>104.7716976278633</v>
+        <v>104.7716976278634</v>
       </c>
       <c r="W12" t="n">
-        <v>123.6660936393576</v>
+        <v>123.6660936393578</v>
       </c>
       <c r="X12" t="n">
-        <v>77.7440956819155</v>
+        <v>77.74409568191564</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.65380625574238</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.80309066037532</v>
+        <v>51.80309066037546</v>
       </c>
       <c r="C13" t="n">
-        <v>39.21793157706585</v>
+        <v>39.217931577066</v>
       </c>
       <c r="D13" t="n">
-        <v>20.58658349665038</v>
+        <v>20.58658349665052</v>
       </c>
       <c r="E13" t="n">
-        <v>18.40507312500719</v>
+        <v>18.40507312500733</v>
       </c>
       <c r="F13" t="n">
-        <v>17.39215850136927</v>
+        <v>17.39215850136941</v>
       </c>
       <c r="G13" t="n">
-        <v>39.78895738845199</v>
+        <v>39.78895738845213</v>
       </c>
       <c r="H13" t="n">
-        <v>32.65897812606843</v>
+        <v>32.65897812606858</v>
       </c>
       <c r="I13" t="n">
-        <v>22.21502050155654</v>
+        <v>22.21502050155668</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.47983740098983</v>
+        <v>41.47983740098997</v>
       </c>
       <c r="S13" t="n">
-        <v>92.97048211842238</v>
+        <v>92.97048211842252</v>
       </c>
       <c r="T13" t="n">
-        <v>99.1769521724554</v>
+        <v>99.17695217245554</v>
       </c>
       <c r="U13" t="n">
-        <v>158.2806962468319</v>
+        <v>158.2806962468321</v>
       </c>
       <c r="V13" t="n">
-        <v>124.108753802266</v>
+        <v>124.1087538022662</v>
       </c>
       <c r="W13" t="n">
-        <v>158.494108815029</v>
+        <v>158.4941088150267</v>
       </c>
       <c r="X13" t="n">
-        <v>97.68076586747517</v>
+        <v>97.68076586747532</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.55576383053356</v>
+        <v>90.55576383053295</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>254.7049521419187</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>208.7617517955827</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>278.8471562201495</v>
+        <v>278.8471562201496</v>
       </c>
       <c r="G14" t="n">
-        <v>286.8878788988218</v>
+        <v>286.8878788988219</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4931066025835</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>67.56692652344468</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.19590931803822</v>
+        <v>72.1959093180383</v>
       </c>
       <c r="T14" t="n">
-        <v>93.37738033029561</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>8.951064332213519</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>221.2120791958511</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.7022111569071</v>
+        <v>241.7022111569072</v>
       </c>
       <c r="Y14" t="n">
-        <v>258.2090491344916</v>
+        <v>258.2090491344917</v>
       </c>
     </row>
     <row r="15">
@@ -1683,22 +1683,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>38.50429412830539</v>
+        <v>38.50429412830547</v>
       </c>
       <c r="C15" t="n">
-        <v>44.67960946675379</v>
+        <v>44.67960946675387</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>104.398936200514</v>
       </c>
       <c r="E15" t="n">
-        <v>29.61619093383899</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>9.108115969867365</v>
+        <v>137.1370054914293</v>
       </c>
       <c r="H15" t="n">
         <v>110.2409762485032</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>87.33599544327318</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>167.8473073757945</v>
       </c>
       <c r="T15" t="n">
-        <v>71.30345221550951</v>
+        <v>199.3323417370715</v>
       </c>
       <c r="U15" t="n">
-        <v>97.89890626521672</v>
+        <v>97.89890626521681</v>
       </c>
       <c r="V15" t="n">
-        <v>104.7716976278633</v>
+        <v>104.7716976278634</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>123.6660936393577</v>
       </c>
       <c r="X15" t="n">
-        <v>77.74409568191552</v>
+        <v>77.74409568191561</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.3294604914665</v>
+        <v>77.6538062557425</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51.80309066037535</v>
+        <v>51.80309066037543</v>
       </c>
       <c r="C16" t="n">
-        <v>39.21793157706588</v>
+        <v>39.21793157706597</v>
       </c>
       <c r="D16" t="n">
-        <v>20.58658349665041</v>
+        <v>20.58658349665049</v>
       </c>
       <c r="E16" t="n">
-        <v>18.40507312500722</v>
+        <v>18.40507312500731</v>
       </c>
       <c r="F16" t="n">
-        <v>17.39215850136929</v>
+        <v>17.39215850136938</v>
       </c>
       <c r="G16" t="n">
-        <v>39.78895738845202</v>
+        <v>39.7889573884521</v>
       </c>
       <c r="H16" t="n">
-        <v>32.65897812606847</v>
+        <v>32.65897812606855</v>
       </c>
       <c r="I16" t="n">
-        <v>22.21502050155657</v>
+        <v>22.21502050155665</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.47983740098986</v>
+        <v>41.47983740098994</v>
       </c>
       <c r="S16" t="n">
-        <v>92.97048211842241</v>
+        <v>92.9704821184225</v>
       </c>
       <c r="T16" t="n">
-        <v>99.17695217245543</v>
+        <v>99.17695217245551</v>
       </c>
       <c r="U16" t="n">
         <v>158.280696246832</v>
@@ -1828,10 +1828,10 @@
         <v>158.4941088150291</v>
       </c>
       <c r="X16" t="n">
-        <v>97.6807658674752</v>
+        <v>97.68076586747529</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.55576383053284</v>
+        <v>90.55576383053292</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>193.5104985685262</v>
       </c>
       <c r="H17" t="n">
-        <v>113.6548023679308</v>
+        <v>113.6548023679334</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>29.90850552839882</v>
+        <v>29.90850552839883</v>
       </c>
       <c r="V17" t="n">
         <v>106.3459886182773</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>137.1370054914293</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>110.2409762485032</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>82.28647222210212</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>87.33599544327318</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>167.8473073757945</v>
       </c>
       <c r="T18" t="n">
         <v>199.3323417370715</v>
@@ -1980,16 +1980,16 @@
         <v>225.9277957867787</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>207.3279449663514</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>30.28871330906205</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>59.22433458335443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>81.96652345672705</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>5.799571842159821</v>
       </c>
       <c r="U19" t="n">
-        <v>64.90331591653634</v>
+        <v>146.8698393732633</v>
       </c>
       <c r="V19" t="n">
         <v>30.73137347197044</v>
@@ -2138,13 +2138,13 @@
         <v>29.90850552839883</v>
       </c>
       <c r="V20" t="n">
-        <v>106.3459886182773</v>
+        <v>105.8850647139232</v>
       </c>
       <c r="W20" t="n">
         <v>127.8346988655555</v>
       </c>
       <c r="X20" t="n">
-        <v>147.8639069222544</v>
+        <v>148.3248308266115</v>
       </c>
       <c r="Y20" t="n">
         <v>164.831668804196</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>26.13817952773707</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2169,7 +2169,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2208,25 +2208,25 @@
         <v>87.33599544327318</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>167.8473073757945</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>199.3323417370715</v>
       </c>
       <c r="U21" t="n">
-        <v>117.5938172552034</v>
+        <v>225.9277957867787</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>30.28871330906205</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2.154649179296936</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>79.81187427743005</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>65.11672848473344</v>
       </c>
       <c r="X22" t="n">
-        <v>86.26990899390661</v>
+        <v>4.303385537179594</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>29.90850552839882</v>
+        <v>29.90850552839883</v>
       </c>
       <c r="V23" t="n">
         <v>106.3459886182773</v>
@@ -2394,10 +2394,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>52.93755920796141</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2406,7 +2406,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>82.28647222210212</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>167.8473073757945</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9277957867787</v>
+        <v>129.05367914436</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2.154649179296936</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>79.81187427743002</v>
       </c>
       <c r="T25" t="n">
         <v>5.799571842159821</v>
       </c>
       <c r="U25" t="n">
-        <v>146.8698393732633</v>
+        <v>64.90331591653634</v>
       </c>
       <c r="V25" t="n">
         <v>30.73137347197044</v>
@@ -2555,25 +2555,25 @@
         <v>226.5724318679489</v>
       </c>
       <c r="C26" t="n">
-        <v>209.1114819754759</v>
+        <v>209.1114819754758</v>
       </c>
       <c r="D26" t="n">
-        <v>198.5216318251513</v>
+        <v>198.5216318251512</v>
       </c>
       <c r="E26" t="n">
         <v>225.7689602767301</v>
       </c>
       <c r="F26" t="n">
-        <v>250.7146359461798</v>
+        <v>250.7146359461797</v>
       </c>
       <c r="G26" t="n">
-        <v>258.7553586248521</v>
+        <v>258.755358624852</v>
       </c>
       <c r="H26" t="n">
-        <v>179.3605863286138</v>
+        <v>179.3605863286137</v>
       </c>
       <c r="I26" t="n">
-        <v>39.43440624947488</v>
+        <v>39.43440624947482</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>44.06338904406851</v>
+        <v>44.06338904406846</v>
       </c>
       <c r="T26" t="n">
-        <v>65.2448600563259</v>
+        <v>65.24486005632585</v>
       </c>
       <c r="U26" t="n">
-        <v>95.15336558472472</v>
+        <v>95.15336558472467</v>
       </c>
       <c r="V26" t="n">
-        <v>171.5908486746033</v>
+        <v>171.5908486746032</v>
       </c>
       <c r="W26" t="n">
-        <v>193.0795589218814</v>
+        <v>193.0795589218813</v>
       </c>
       <c r="X26" t="n">
-        <v>213.5696908829374</v>
+        <v>213.5696908829373</v>
       </c>
       <c r="Y26" t="n">
         <v>230.0765288605219</v>
@@ -2637,22 +2637,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>62.92275047894379</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>7.372683878685643</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>82.28647222210212</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>11.68589758026281</v>
+        <v>11.68589758026276</v>
       </c>
       <c r="T27" t="n">
-        <v>199.3323417370715</v>
+        <v>43.17093194153976</v>
       </c>
       <c r="U27" t="n">
         <v>225.9277957867787</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>76.63917735389356</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>23.67057038640564</v>
+        <v>23.67057038640559</v>
       </c>
       <c r="C28" t="n">
-        <v>11.08541130309618</v>
+        <v>11.08541130309612</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>11.65643711448231</v>
+        <v>11.65643711448226</v>
       </c>
       <c r="H28" t="n">
-        <v>4.526457852098764</v>
+        <v>4.526457852098707</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>13.34731712702015</v>
+        <v>13.34731712702009</v>
       </c>
       <c r="S28" t="n">
-        <v>64.83796184445271</v>
+        <v>64.83796184445265</v>
       </c>
       <c r="T28" t="n">
-        <v>71.04443189848573</v>
+        <v>71.04443189848567</v>
       </c>
       <c r="U28" t="n">
         <v>130.1481759728622</v>
       </c>
       <c r="V28" t="n">
-        <v>95.97623352829635</v>
+        <v>95.97623352829629</v>
       </c>
       <c r="W28" t="n">
         <v>130.3615885410593</v>
       </c>
       <c r="X28" t="n">
-        <v>69.5482455935055</v>
+        <v>69.54824559350544</v>
       </c>
       <c r="Y28" t="n">
-        <v>62.42324355656314</v>
+        <v>62.42324355656308</v>
       </c>
     </row>
     <row r="29">
@@ -2792,25 +2792,25 @@
         <v>226.5724318679489</v>
       </c>
       <c r="C29" t="n">
-        <v>209.1114819754758</v>
+        <v>209.1114819754759</v>
       </c>
       <c r="D29" t="n">
-        <v>198.5216318251512</v>
+        <v>198.5216318251513</v>
       </c>
       <c r="E29" t="n">
         <v>225.7689602767301</v>
       </c>
       <c r="F29" t="n">
-        <v>250.7146359461797</v>
+        <v>250.7146359461798</v>
       </c>
       <c r="G29" t="n">
-        <v>258.755358624852</v>
+        <v>258.7553586248521</v>
       </c>
       <c r="H29" t="n">
         <v>179.3605863286137</v>
       </c>
       <c r="I29" t="n">
-        <v>39.43440624947483</v>
+        <v>39.43440624947485</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>44.06338904406845</v>
+        <v>44.06338904406848</v>
       </c>
       <c r="T29" t="n">
-        <v>65.24486005632585</v>
+        <v>65.24486005632588</v>
       </c>
       <c r="U29" t="n">
-        <v>95.15336558472467</v>
+        <v>95.1533655847247</v>
       </c>
       <c r="V29" t="n">
         <v>171.5908486746032</v>
@@ -2855,7 +2855,7 @@
         <v>193.0795589218813</v>
       </c>
       <c r="X29" t="n">
-        <v>213.5696908829373</v>
+        <v>213.5696908829374</v>
       </c>
       <c r="Y29" t="n">
         <v>230.0765288605219</v>
@@ -2877,16 +2877,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>1.483670659869261</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>53.29311742571397</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>110.2409762485032</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,16 +2919,16 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>11.68589758026276</v>
+        <v>167.8473073757945</v>
       </c>
       <c r="T30" t="n">
-        <v>43.17093194153976</v>
+        <v>43.17093194153978</v>
       </c>
       <c r="U30" t="n">
-        <v>69.76638599124696</v>
+        <v>222.2082822633162</v>
       </c>
       <c r="V30" t="n">
-        <v>76.63917735389356</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>23.67057038640559</v>
+        <v>23.67057038640561</v>
       </c>
       <c r="C31" t="n">
-        <v>11.08541130309612</v>
+        <v>11.08541130309615</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>11.65643711448226</v>
+        <v>11.65643711448228</v>
       </c>
       <c r="H31" t="n">
-        <v>4.526457852098707</v>
+        <v>4.526457852098735</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>13.34731712702009</v>
+        <v>13.34731712702012</v>
       </c>
       <c r="S31" t="n">
-        <v>64.83796184445265</v>
+        <v>64.83796184445268</v>
       </c>
       <c r="T31" t="n">
-        <v>71.04443189848567</v>
+        <v>71.0444318984857</v>
       </c>
       <c r="U31" t="n">
         <v>130.1481759728622</v>
       </c>
       <c r="V31" t="n">
-        <v>95.97623352829629</v>
+        <v>95.97623352829632</v>
       </c>
       <c r="W31" t="n">
         <v>130.3615885410593</v>
       </c>
       <c r="X31" t="n">
-        <v>69.54824559350544</v>
+        <v>69.54824559350547</v>
       </c>
       <c r="Y31" t="n">
-        <v>62.42324355656308</v>
+        <v>62.42324355656311</v>
       </c>
     </row>
     <row r="32">
@@ -3035,16 +3035,16 @@
         <v>146.1706839471847</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4180123987635</v>
+        <v>173.4180123987636</v>
       </c>
       <c r="F32" t="n">
         <v>198.3636880682132</v>
       </c>
       <c r="G32" t="n">
-        <v>206.4044107468854</v>
+        <v>206.4044107468855</v>
       </c>
       <c r="H32" t="n">
-        <v>127.0096384506471</v>
+        <v>127.0096384506472</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>12.89391217835927</v>
+        <v>12.89391217835933</v>
       </c>
       <c r="U32" t="n">
-        <v>42.80241770675809</v>
+        <v>42.80241770675815</v>
       </c>
       <c r="V32" t="n">
-        <v>119.2399007966366</v>
+        <v>119.2399007966367</v>
       </c>
       <c r="W32" t="n">
-        <v>140.7286110439147</v>
+        <v>140.7286110439148</v>
       </c>
       <c r="X32" t="n">
-        <v>161.2187430049707</v>
+        <v>161.2187430049708</v>
       </c>
       <c r="Y32" t="n">
-        <v>177.7255809825553</v>
+        <v>177.7255809825554</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3114,10 +3114,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>87.33599544327318</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>9.450054716669753</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>199.3323417370715</v>
       </c>
       <c r="U33" t="n">
         <v>225.9277957867787</v>
@@ -3171,7 +3171,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>191.0382770150279</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>12.48701396648608</v>
+        <v>12.48701396648614</v>
       </c>
       <c r="T34" t="n">
-        <v>18.69348402051909</v>
+        <v>18.69348402051915</v>
       </c>
       <c r="U34" t="n">
-        <v>77.79722809489562</v>
+        <v>77.79722809489567</v>
       </c>
       <c r="V34" t="n">
-        <v>43.62528565032972</v>
+        <v>43.62528565032977</v>
       </c>
       <c r="W34" t="n">
-        <v>78.01064066309272</v>
+        <v>78.01064066309277</v>
       </c>
       <c r="X34" t="n">
-        <v>17.19729771553887</v>
+        <v>17.19729771553892</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.0722956785965</v>
+        <v>10.07229567859656</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.713066630143</v>
+        <v>172.7130666301429</v>
       </c>
       <c r="C35" t="n">
-        <v>155.25211673767</v>
+        <v>155.2521167376699</v>
       </c>
       <c r="D35" t="n">
-        <v>144.6622665873454</v>
+        <v>144.6622665873453</v>
       </c>
       <c r="E35" t="n">
-        <v>171.9095950389242</v>
+        <v>171.9095950389241</v>
       </c>
       <c r="F35" t="n">
         <v>196.8552707083738</v>
@@ -3281,7 +3281,7 @@
         <v>204.8959933870461</v>
       </c>
       <c r="H35" t="n">
-        <v>125.5012210908078</v>
+        <v>125.5012210908077</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>11.38549481851996</v>
+        <v>11.3854948185199</v>
       </c>
       <c r="U35" t="n">
-        <v>41.29400034691878</v>
+        <v>41.29400034691872</v>
       </c>
       <c r="V35" t="n">
-        <v>117.7314834367973</v>
+        <v>117.7314834367972</v>
       </c>
       <c r="W35" t="n">
         <v>139.2201936840754</v>
@@ -3332,7 +3332,7 @@
         <v>159.7103256451314</v>
       </c>
       <c r="Y35" t="n">
-        <v>176.217163622716</v>
+        <v>176.2171636227159</v>
       </c>
     </row>
     <row r="36">
@@ -3357,10 +3357,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.1370054914293</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>106.6861759581004</v>
       </c>
       <c r="I36" t="n">
         <v>82.28647222210212</v>
@@ -3390,19 +3390,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>87.33599544327318</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>152.1491067502235</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>15.90702075344108</v>
+        <v>15.90702075344102</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>22.77981211608761</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3411,7 +3411,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3448,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.154649179296936</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>10.97859660664677</v>
+        <v>16.47517104537026</v>
       </c>
       <c r="T37" t="n">
-        <v>17.18506666067978</v>
+        <v>17.18506666067972</v>
       </c>
       <c r="U37" t="n">
-        <v>76.2888107350563</v>
+        <v>76.28881073505624</v>
       </c>
       <c r="V37" t="n">
-        <v>42.1168682904904</v>
+        <v>42.11686829049034</v>
       </c>
       <c r="W37" t="n">
-        <v>79.84414856267965</v>
+        <v>76.50222330325334</v>
       </c>
       <c r="X37" t="n">
-        <v>15.68888035569955</v>
+        <v>15.6888803556995</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.56387831875719</v>
+        <v>8.563878318757133</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.713066630143</v>
+        <v>172.7130666301429</v>
       </c>
       <c r="C38" t="n">
-        <v>155.25211673767</v>
+        <v>155.2521167376699</v>
       </c>
       <c r="D38" t="n">
-        <v>144.6622665873454</v>
+        <v>144.6622665873453</v>
       </c>
       <c r="E38" t="n">
-        <v>171.9095950389242</v>
+        <v>171.9095950389241</v>
       </c>
       <c r="F38" t="n">
         <v>196.8552707083738</v>
@@ -3518,7 +3518,7 @@
         <v>204.8959933870461</v>
       </c>
       <c r="H38" t="n">
-        <v>125.5012210908078</v>
+        <v>125.5012210908077</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>11.38549481851996</v>
+        <v>11.3854948185199</v>
       </c>
       <c r="U38" t="n">
-        <v>41.29400034691878</v>
+        <v>41.29400034691872</v>
       </c>
       <c r="V38" t="n">
-        <v>117.7314834367973</v>
+        <v>117.7314834367972</v>
       </c>
       <c r="W38" t="n">
         <v>139.2201936840754</v>
@@ -3569,7 +3569,7 @@
         <v>159.7103256451314</v>
       </c>
       <c r="Y38" t="n">
-        <v>176.217163622716</v>
+        <v>176.2171636227159</v>
       </c>
     </row>
     <row r="39">
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>76.86843136705662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,10 +3636,10 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9277957867787</v>
+        <v>15.90702075344102</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>156.3620173171133</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>3.341925259426666</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>10.97859660664677</v>
+        <v>10.97859660664671</v>
       </c>
       <c r="T40" t="n">
-        <v>17.18506666067978</v>
+        <v>17.18506666067972</v>
       </c>
       <c r="U40" t="n">
-        <v>76.2888107350563</v>
+        <v>76.28881073505624</v>
       </c>
       <c r="V40" t="n">
-        <v>42.1168682904904</v>
+        <v>42.11686829049034</v>
       </c>
       <c r="W40" t="n">
-        <v>79.84414856267965</v>
+        <v>76.50222330325334</v>
       </c>
       <c r="X40" t="n">
-        <v>15.68888035569955</v>
+        <v>15.6888803556995</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.56387831875719</v>
+        <v>8.563878318757133</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>144.6622665873453</v>
       </c>
       <c r="E41" t="n">
-        <v>171.9095950389242</v>
+        <v>171.9095950389241</v>
       </c>
       <c r="F41" t="n">
         <v>196.8552707083738</v>
@@ -3755,7 +3755,7 @@
         <v>204.8959933870461</v>
       </c>
       <c r="H41" t="n">
-        <v>125.5012210908078</v>
+        <v>125.5012210908077</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>11.38549481851993</v>
+        <v>11.3854948185199</v>
       </c>
       <c r="U41" t="n">
-        <v>41.29400034691876</v>
+        <v>41.29400034691874</v>
       </c>
       <c r="V41" t="n">
-        <v>117.7314834367973</v>
+        <v>117.7314834367972</v>
       </c>
       <c r="W41" t="n">
         <v>139.2201936840754</v>
@@ -3806,7 +3806,7 @@
         <v>159.7103256451314</v>
       </c>
       <c r="Y41" t="n">
-        <v>176.217163622716</v>
+        <v>176.2171636227159</v>
       </c>
     </row>
     <row r="42">
@@ -3822,22 +3822,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>71.00649573232739</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>110.2409762485032</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>82.28647222210212</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>51.13731599834037</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>15.90702075344105</v>
+        <v>225.9277957867787</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>2.154649179296936</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>10.97859660664674</v>
+        <v>10.97859660664671</v>
       </c>
       <c r="T43" t="n">
-        <v>20.52699192010624</v>
+        <v>17.18506666067972</v>
       </c>
       <c r="U43" t="n">
-        <v>76.28881073505627</v>
+        <v>76.28881073505624</v>
       </c>
       <c r="V43" t="n">
-        <v>42.11686829049037</v>
+        <v>42.11686829049034</v>
       </c>
       <c r="W43" t="n">
-        <v>76.50222330325337</v>
+        <v>81.99879774197694</v>
       </c>
       <c r="X43" t="n">
-        <v>15.68888035569952</v>
+        <v>15.6888803556995</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.563878318757162</v>
+        <v>8.563878318757133</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>144.6622665873453</v>
       </c>
       <c r="E44" t="n">
-        <v>171.9095950389242</v>
+        <v>171.9095950389241</v>
       </c>
       <c r="F44" t="n">
         <v>196.8552707083738</v>
@@ -3992,7 +3992,7 @@
         <v>204.8959933870461</v>
       </c>
       <c r="H44" t="n">
-        <v>125.5012210908078</v>
+        <v>125.5012210908077</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>11.38549481851993</v>
+        <v>11.3854948185199</v>
       </c>
       <c r="U44" t="n">
-        <v>41.29400034691876</v>
+        <v>41.29400034691872</v>
       </c>
       <c r="V44" t="n">
-        <v>117.7314834367971</v>
+        <v>117.7314834367972</v>
       </c>
       <c r="W44" t="n">
         <v>139.2201936840754</v>
@@ -4043,7 +4043,7 @@
         <v>159.7103256451314</v>
       </c>
       <c r="Y44" t="n">
-        <v>176.217163622716</v>
+        <v>176.2171636227159</v>
       </c>
     </row>
     <row r="45">
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>56.28550457927738</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4068,7 +4068,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.1370054914293</v>
+        <v>116.0888786382944</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>199.3323417370715</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9277957867787</v>
+        <v>15.90702075344102</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2.154649179296936</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.4751710453702</v>
+        <v>14.32052186607335</v>
       </c>
       <c r="T46" t="n">
-        <v>17.18506666067975</v>
+        <v>17.18506666067972</v>
       </c>
       <c r="U46" t="n">
-        <v>76.28881073505627</v>
+        <v>76.28881073505624</v>
       </c>
       <c r="V46" t="n">
-        <v>42.11686829049037</v>
+        <v>42.11686829049034</v>
       </c>
       <c r="W46" t="n">
-        <v>76.50222330325337</v>
+        <v>76.50222330325334</v>
       </c>
       <c r="X46" t="n">
-        <v>15.68888035569952</v>
+        <v>15.6888803556995</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.563878318757162</v>
+        <v>8.563878318757133</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.5286895169144</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C2" t="n">
-        <v>176.5286895169144</v>
+        <v>70.511337059101</v>
       </c>
       <c r="D2" t="n">
-        <v>176.5286895169144</v>
+        <v>25.9333851608903</v>
       </c>
       <c r="E2" t="n">
-        <v>176.5286895169144</v>
+        <v>25.9333851608903</v>
       </c>
       <c r="F2" t="n">
-        <v>131.9507376187037</v>
+        <v>18.98788441168682</v>
       </c>
       <c r="G2" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
         <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>45.45613755060546</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L2" t="n">
+        <v>47.22142444577459</v>
+      </c>
+      <c r="M2" t="n">
         <v>89.14698820604177</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>89.14698820604177</v>
+      </c>
+      <c r="O2" t="n">
         <v>132.8378388614781</v>
-      </c>
-      <c r="N2" t="n">
-        <v>176.5286895169144</v>
-      </c>
-      <c r="O2" t="n">
-        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
         <v>176.5286895169144</v>
@@ -4373,7 +4373,7 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.5286895169144</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.0185621377561</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="C3" t="n">
         <v>93.44061023954541</v>
@@ -4398,10 +4398,10 @@
         <v>93.44061023954541</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I3" t="n">
         <v>4.284706443124001</v>
@@ -4413,19 +4413,19 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N3" t="n">
-        <v>47.22142444577459</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O3" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
         <v>176.5286895169144</v>
@@ -4437,22 +4437,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>138.0185621377561</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="Y3" t="n">
-        <v>138.0185621377561</v>
+        <v>93.44061023954541</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="C4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="D4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="E4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="F4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="G4" t="n">
-        <v>70.60296187630945</v>
+        <v>129.2018075832426</v>
       </c>
       <c r="H4" t="n">
-        <v>70.60296187630945</v>
+        <v>84.62385568503186</v>
       </c>
       <c r="I4" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>64.49083521440409</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>41.99639902664363</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>69.3105240343566</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>108.4985622265788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>152.1894128820151</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="R4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="S4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="T4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="U4" t="n">
-        <v>135.3139342451479</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="V4" t="n">
-        <v>115.1809137745201</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="W4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="X4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
       <c r="Y4" t="n">
-        <v>70.60296187630945</v>
+        <v>173.7797594814533</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="C5" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="E5" t="n">
+        <v>131.9507376187037</v>
+      </c>
+      <c r="F5" t="n">
         <v>87.37278572049297</v>
       </c>
-      <c r="C5" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="D5" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="E5" t="n">
-        <v>87.37278572049297</v>
-      </c>
-      <c r="F5" t="n">
-        <v>80.4272849712895</v>
-      </c>
       <c r="G5" t="n">
-        <v>35.8493330730788</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I5" t="n">
         <v>3.530573790338288</v>
@@ -4568,7 +4568,7 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L5" t="n">
         <v>47.22142444577459</v>
@@ -4607,10 +4607,10 @@
         <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y5" t="n">
-        <v>87.37278572049297</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H6" t="n">
-        <v>4.284706443124001</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I6" t="n">
-        <v>4.284706443124001</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
         <v>3.530573790338288</v>
@@ -4653,13 +4653,13 @@
         <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N6" t="n">
-        <v>90.91227510121089</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
         <v>176.5286895169144</v>
@@ -4674,22 +4674,22 @@
         <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>42.79483382228227</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.284706443124001</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.10852568854899</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="C7" t="n">
-        <v>48.10852568854899</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
         <v>3.530573790338288</v>
@@ -4750,25 +4750,25 @@
         <v>135.3139342451479</v>
       </c>
       <c r="S7" t="n">
-        <v>135.3139342451479</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="T7" t="n">
-        <v>135.3139342451479</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U7" t="n">
-        <v>135.3139342451479</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V7" t="n">
-        <v>92.68647758675968</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W7" t="n">
-        <v>48.10852568854899</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X7" t="n">
-        <v>48.10852568854899</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="Y7" t="n">
-        <v>48.10852568854899</v>
+        <v>26.02500997809875</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>710.516763498309</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>703.5712627491056</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>460.1224861050055</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4844,10 +4844,10 @@
         <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>433.7223438482202</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>259.2693145670932</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,16 +4887,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>227.7955745279523</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>809.6979796332421</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>601.9376808682882</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>562.0649720690487</v>
+        <v>1063.968560651563</v>
       </c>
       <c r="C11" t="n">
-        <v>562.0649720690487</v>
+        <v>824.3281543389917</v>
       </c>
       <c r="D11" t="n">
-        <v>562.0649720690487</v>
+        <v>595.3845663600814</v>
       </c>
       <c r="E11" t="n">
-        <v>305.5988300986447</v>
+        <v>595.3845663600814</v>
       </c>
       <c r="F11" t="n">
-        <v>305.5988300986447</v>
+        <v>595.3845663600814</v>
       </c>
       <c r="G11" t="n">
-        <v>305.5988300986447</v>
+        <v>305.598830098645</v>
       </c>
       <c r="H11" t="n">
-        <v>96.00983353037861</v>
+        <v>96.00983353037876</v>
       </c>
       <c r="I11" t="n">
-        <v>27.76041279962653</v>
+        <v>27.76041279962652</v>
       </c>
       <c r="J11" t="n">
-        <v>48.36167434965159</v>
+        <v>48.36167434965154</v>
       </c>
       <c r="K11" t="n">
-        <v>199.9824293346794</v>
+        <v>199.9824293346795</v>
       </c>
       <c r="L11" t="n">
-        <v>440.3580106601038</v>
+        <v>440.3580106601036</v>
       </c>
       <c r="M11" t="n">
-        <v>724.4287057736691</v>
+        <v>724.4287057736689</v>
       </c>
       <c r="N11" t="n">
-        <v>998.4639641751272</v>
+        <v>998.4639641751268</v>
       </c>
       <c r="O11" t="n">
         <v>1212.04005012792</v>
       </c>
       <c r="P11" t="n">
-        <v>1356.64791532371</v>
+        <v>1356.647915323709</v>
       </c>
       <c r="Q11" t="n">
         <v>1388.020639981326</v>
@@ -5069,22 +5069,22 @@
         <v>1388.020639981326</v>
       </c>
       <c r="T11" t="n">
-        <v>1388.020639981326</v>
+        <v>1293.700053789108</v>
       </c>
       <c r="U11" t="n">
-        <v>1263.489442144261</v>
+        <v>1293.700053789108</v>
       </c>
       <c r="V11" t="n">
-        <v>1061.748665428531</v>
+        <v>1091.959277073378</v>
       </c>
       <c r="W11" t="n">
-        <v>838.3021207862571</v>
+        <v>1091.959277073378</v>
       </c>
       <c r="X11" t="n">
-        <v>594.1584731530176</v>
+        <v>1091.959277073378</v>
       </c>
       <c r="Y11" t="n">
-        <v>562.0649720690487</v>
+        <v>1091.959277073378</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5094,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>361.2712986875284</v>
+        <v>278.1536499783349</v>
       </c>
       <c r="C12" t="n">
-        <v>316.1403800342417</v>
+        <v>103.7006206972079</v>
       </c>
       <c r="D12" t="n">
-        <v>296.5280810008309</v>
+        <v>84.08832166379685</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6127366232158</v>
+        <v>54.17297728618159</v>
       </c>
       <c r="F12" t="n">
-        <v>120.0781786501007</v>
+        <v>36.9605299409068</v>
       </c>
       <c r="G12" t="n">
-        <v>110.8780615088206</v>
+        <v>27.76041279962652</v>
       </c>
       <c r="H12" t="n">
-        <v>110.8780615088206</v>
+        <v>27.76041279962652</v>
       </c>
       <c r="I12" t="n">
-        <v>27.76041279962653</v>
+        <v>27.76041279962652</v>
       </c>
       <c r="J12" t="n">
-        <v>46.33700336304781</v>
+        <v>46.3370033630478</v>
       </c>
       <c r="K12" t="n">
-        <v>46.33700336304781</v>
+        <v>204.7081985865566</v>
       </c>
       <c r="L12" t="n">
-        <v>320.6910158472691</v>
+        <v>479.0622110707779</v>
       </c>
       <c r="M12" t="n">
-        <v>664.2261242426473</v>
+        <v>822.597319466156</v>
       </c>
       <c r="N12" t="n">
-        <v>1007.761232638026</v>
+        <v>1166.132427861534</v>
       </c>
       <c r="O12" t="n">
-        <v>1070.844855376913</v>
+        <v>1292.528658053224</v>
       </c>
       <c r="P12" t="n">
         <v>1292.528658053224</v>
@@ -5142,28 +5142,28 @@
         <v>1388.020639981326</v>
       </c>
       <c r="R12" t="n">
-        <v>1386.975775690386</v>
+        <v>1388.020639981326</v>
       </c>
       <c r="S12" t="n">
-        <v>1217.433040967361</v>
+        <v>1347.800015886141</v>
       </c>
       <c r="T12" t="n">
-        <v>1016.087241232945</v>
+        <v>1146.454216151726</v>
       </c>
       <c r="U12" t="n">
-        <v>787.8773464988255</v>
+        <v>963.4039190453133</v>
       </c>
       <c r="V12" t="n">
-        <v>682.0473488949232</v>
+        <v>857.5739214414108</v>
       </c>
       <c r="W12" t="n">
-        <v>557.1321027945619</v>
+        <v>732.6586753410494</v>
       </c>
       <c r="X12" t="n">
-        <v>478.6027132168695</v>
+        <v>654.1292857633568</v>
       </c>
       <c r="Y12" t="n">
-        <v>400.164525079756</v>
+        <v>446.3689869984029</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>219.9469811997988</v>
+        <v>219.946981199799</v>
       </c>
       <c r="C13" t="n">
         <v>180.3329088997323</v>
       </c>
       <c r="D13" t="n">
-        <v>159.5383801152369</v>
+        <v>159.5383801152367</v>
       </c>
       <c r="E13" t="n">
-        <v>140.9473971606842</v>
+        <v>140.9473971606839</v>
       </c>
       <c r="F13" t="n">
-        <v>123.3795602906143</v>
+        <v>123.3795602906137</v>
       </c>
       <c r="G13" t="n">
-        <v>83.18869424167195</v>
+        <v>83.1886942416722</v>
       </c>
       <c r="H13" t="n">
-        <v>50.19982744766344</v>
+        <v>50.19982744766355</v>
       </c>
       <c r="I13" t="n">
-        <v>27.76041279962653</v>
+        <v>27.76041279962652</v>
       </c>
       <c r="J13" t="n">
-        <v>74.20148457446322</v>
+        <v>74.20148457446308</v>
       </c>
       <c r="K13" t="n">
-        <v>198.8169825133056</v>
+        <v>198.8169825133052</v>
       </c>
       <c r="L13" t="n">
-        <v>378.3623807041602</v>
+        <v>378.3623807041596</v>
       </c>
       <c r="M13" t="n">
-        <v>571.1669247995308</v>
+        <v>571.1669247995301</v>
       </c>
       <c r="N13" t="n">
-        <v>767.8354226233541</v>
+        <v>767.8354226233537</v>
       </c>
       <c r="O13" t="n">
-        <v>943.1500696603765</v>
+        <v>943.1500696603758</v>
       </c>
       <c r="P13" t="n">
-        <v>1087.934630805953</v>
+        <v>1087.934630805952</v>
       </c>
       <c r="Q13" t="n">
-        <v>1143.735315456747</v>
+        <v>1143.735315456746</v>
       </c>
       <c r="R13" t="n">
         <v>1101.836489799181</v>
       </c>
       <c r="S13" t="n">
-        <v>1007.926911901785</v>
+        <v>1007.926911901784</v>
       </c>
       <c r="T13" t="n">
-        <v>907.7481723336482</v>
+        <v>907.7481723336471</v>
       </c>
       <c r="U13" t="n">
-        <v>747.8686811752322</v>
+        <v>747.8686811752309</v>
       </c>
       <c r="V13" t="n">
-        <v>622.5063035971857</v>
+        <v>622.5063035971843</v>
       </c>
       <c r="W13" t="n">
-        <v>462.4112441880655</v>
+        <v>462.4112441880653</v>
       </c>
       <c r="X13" t="n">
-        <v>363.7438039178886</v>
+        <v>363.7438039178883</v>
       </c>
       <c r="Y13" t="n">
-        <v>272.2733354021981</v>
+        <v>272.2733354021985</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>815.4412446824479</v>
+        <v>884.9721252041086</v>
       </c>
       <c r="C14" t="n">
-        <v>815.4412446824479</v>
+        <v>674.101668844934</v>
       </c>
       <c r="D14" t="n">
-        <v>815.4412446824479</v>
+        <v>674.101668844934</v>
       </c>
       <c r="E14" t="n">
-        <v>815.4412446824479</v>
+        <v>674.101668844934</v>
       </c>
       <c r="F14" t="n">
-        <v>533.7774505206806</v>
+        <v>392.4378746831667</v>
       </c>
       <c r="G14" t="n">
-        <v>243.9917142592443</v>
+        <v>102.6521384217305</v>
       </c>
       <c r="H14" t="n">
-        <v>34.4027176909782</v>
+        <v>102.6521384217305</v>
       </c>
       <c r="I14" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="J14" t="n">
-        <v>55.00397924100321</v>
+        <v>124.5988639632478</v>
       </c>
       <c r="K14" t="n">
-        <v>206.6247342260311</v>
+        <v>276.2196189482758</v>
       </c>
       <c r="L14" t="n">
-        <v>447.0003155514553</v>
+        <v>516.5952002736999</v>
       </c>
       <c r="M14" t="n">
-        <v>731.0710106650206</v>
+        <v>800.6658953872652</v>
       </c>
       <c r="N14" t="n">
-        <v>1074.70115378872</v>
+        <v>1074.701153788723</v>
       </c>
       <c r="O14" t="n">
-        <v>1415.025840367859</v>
+        <v>1415.025840367862</v>
       </c>
       <c r="P14" t="n">
-        <v>1686.382306189996</v>
+        <v>1686.382306189998</v>
       </c>
       <c r="Q14" t="n">
-        <v>1717.755030847612</v>
+        <v>1717.755030847615</v>
       </c>
       <c r="R14" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="S14" t="n">
-        <v>1647.210723621599</v>
+        <v>1647.210723621601</v>
       </c>
       <c r="T14" t="n">
-        <v>1552.890137429381</v>
+        <v>1647.210723621601</v>
       </c>
       <c r="U14" t="n">
-        <v>1552.890137429381</v>
+        <v>1647.210723621601</v>
       </c>
       <c r="V14" t="n">
-        <v>1543.848658305933</v>
+        <v>1647.210723621601</v>
       </c>
       <c r="W14" t="n">
-        <v>1320.402113663659</v>
+        <v>1647.210723621601</v>
       </c>
       <c r="X14" t="n">
-        <v>1076.258466030419</v>
+        <v>1403.067075988361</v>
       </c>
       <c r="Y14" t="n">
-        <v>815.4412446824479</v>
+        <v>1142.24985464039</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.5902356698551</v>
+        <v>823.7535181738947</v>
       </c>
       <c r="C15" t="n">
-        <v>563.4593170165684</v>
+        <v>778.622599520608</v>
       </c>
       <c r="D15" t="n">
-        <v>414.5249073553172</v>
+        <v>673.1691286109979</v>
       </c>
       <c r="E15" t="n">
-        <v>384.609562977702</v>
+        <v>513.9316736055424</v>
       </c>
       <c r="F15" t="n">
-        <v>238.075005004587</v>
+        <v>367.3971156324274</v>
       </c>
       <c r="G15" t="n">
-        <v>228.8748878633068</v>
+        <v>228.8748878633069</v>
       </c>
       <c r="H15" t="n">
         <v>117.5203664001723</v>
       </c>
       <c r="I15" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="J15" t="n">
-        <v>52.97930825439948</v>
+        <v>52.97930825439953</v>
       </c>
       <c r="K15" t="n">
-        <v>61.37842615960921</v>
+        <v>211.3505034779084</v>
       </c>
       <c r="L15" t="n">
-        <v>335.7324386438304</v>
+        <v>485.7045159621296</v>
       </c>
       <c r="M15" t="n">
-        <v>707.8698524104565</v>
+        <v>857.8419297287556</v>
       </c>
       <c r="N15" t="n">
-        <v>1105.563649577508</v>
+        <v>1255.535726895807</v>
       </c>
       <c r="O15" t="n">
-        <v>1402.960099944497</v>
+        <v>1402.960099944499</v>
       </c>
       <c r="P15" t="n">
-        <v>1624.643902620807</v>
+        <v>1624.64390262081</v>
       </c>
       <c r="Q15" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="R15" t="n">
-        <v>1631.917707333482</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="S15" t="n">
-        <v>1462.374972610458</v>
+        <v>1550.593149825888</v>
       </c>
       <c r="T15" t="n">
-        <v>1390.351283503882</v>
+        <v>1349.247350091472</v>
       </c>
       <c r="U15" t="n">
-        <v>1291.463499397603</v>
+        <v>1250.359565985193</v>
       </c>
       <c r="V15" t="n">
-        <v>1185.633501793701</v>
+        <v>1144.52956838129</v>
       </c>
       <c r="W15" t="n">
-        <v>931.396145065499</v>
+        <v>1019.614322280929</v>
       </c>
       <c r="X15" t="n">
-        <v>852.8667554878066</v>
+        <v>941.0849327032362</v>
       </c>
       <c r="Y15" t="n">
-        <v>647.4834620620828</v>
+        <v>862.6467445661225</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>226.5892860911501</v>
+        <v>226.5892860911499</v>
       </c>
       <c r="C16" t="n">
-        <v>186.9752137910836</v>
+        <v>186.9752137910833</v>
       </c>
       <c r="D16" t="n">
-        <v>166.1806850065882</v>
+        <v>166.1806850065879</v>
       </c>
       <c r="E16" t="n">
-        <v>147.5897020520355</v>
+        <v>147.589702052035</v>
       </c>
       <c r="F16" t="n">
-        <v>130.0218651819651</v>
+        <v>130.0218651819654</v>
       </c>
       <c r="G16" t="n">
-        <v>89.83099913302362</v>
+        <v>89.83099913302391</v>
       </c>
       <c r="H16" t="n">
-        <v>56.84213233901514</v>
+        <v>56.84213233901527</v>
       </c>
       <c r="I16" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="J16" t="n">
-        <v>80.84378946581487</v>
+        <v>80.84378946581501</v>
       </c>
       <c r="K16" t="n">
-        <v>205.4592874046572</v>
+        <v>205.4592874046573</v>
       </c>
       <c r="L16" t="n">
         <v>385.0046855955118</v>
       </c>
       <c r="M16" t="n">
-        <v>577.8092296908824</v>
+        <v>577.8092296908821</v>
       </c>
       <c r="N16" t="n">
-        <v>774.4777275147057</v>
+        <v>774.4777275147055</v>
       </c>
       <c r="O16" t="n">
-        <v>949.7923745517282</v>
+        <v>949.7923745517278</v>
       </c>
       <c r="P16" t="n">
         <v>1094.576935697305</v>
       </c>
       <c r="Q16" t="n">
-        <v>1150.377620348099</v>
+        <v>1150.377620348098</v>
       </c>
       <c r="R16" t="n">
-        <v>1108.478794690532</v>
+        <v>1108.478794690533</v>
       </c>
       <c r="S16" t="n">
         <v>1014.569216793136</v>
       </c>
       <c r="T16" t="n">
-        <v>914.390477224999</v>
+        <v>914.3904772249995</v>
       </c>
       <c r="U16" t="n">
-        <v>754.510986066583</v>
+        <v>754.5109860665832</v>
       </c>
       <c r="V16" t="n">
-        <v>629.1486084885364</v>
+        <v>629.1486084885366</v>
       </c>
       <c r="W16" t="n">
-        <v>469.0535490794161</v>
+        <v>469.0535490794163</v>
       </c>
       <c r="X16" t="n">
         <v>370.3861088092392</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.9156402935495</v>
+        <v>278.9156402935493</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>974.1022840896552</v>
+        <v>974.1022840896578</v>
       </c>
       <c r="C17" t="n">
-        <v>828.7824639693019</v>
+        <v>828.7824639693044</v>
       </c>
       <c r="D17" t="n">
-        <v>694.1594621826097</v>
+        <v>694.1594621826122</v>
       </c>
       <c r="E17" t="n">
-        <v>532.0139064044236</v>
+        <v>532.0139064044261</v>
       </c>
       <c r="F17" t="n">
-        <v>344.6706984348741</v>
+        <v>344.6706984348766</v>
       </c>
       <c r="G17" t="n">
-        <v>149.2055483656558</v>
+        <v>149.2055483656585</v>
       </c>
       <c r="H17" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="I17" t="n">
-        <v>34.4027176909782</v>
+        <v>59.95506695976076</v>
       </c>
       <c r="J17" t="n">
-        <v>55.00397924100321</v>
+        <v>80.55632850978577</v>
       </c>
       <c r="K17" t="n">
-        <v>206.6247342260311</v>
+        <v>232.1770834948137</v>
       </c>
       <c r="L17" t="n">
-        <v>447.0003155514553</v>
+        <v>472.5526648202379</v>
       </c>
       <c r="M17" t="n">
-        <v>872.7339469773106</v>
+        <v>756.6233599338032</v>
       </c>
       <c r="N17" t="n">
-        <v>1146.769205378768</v>
+        <v>1030.658618335261</v>
       </c>
       <c r="O17" t="n">
-        <v>1360.345291331561</v>
+        <v>1244.234704288054</v>
       </c>
       <c r="P17" t="n">
-        <v>1572.969043360868</v>
+        <v>1388.842569483844</v>
       </c>
       <c r="Q17" t="n">
-        <v>1604.341768018485</v>
+        <v>1604.341768018488</v>
       </c>
       <c r="R17" t="n">
-        <v>1699.166228246775</v>
+        <v>1699.166228246778</v>
       </c>
       <c r="S17" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="T17" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="U17" t="n">
-        <v>1689.925272904062</v>
+        <v>1689.925272904065</v>
       </c>
       <c r="V17" t="n">
-        <v>1582.50508238055</v>
+        <v>1582.505082380553</v>
       </c>
       <c r="W17" t="n">
-        <v>1453.379123930494</v>
+        <v>1453.379123930497</v>
       </c>
       <c r="X17" t="n">
-        <v>1303.556062489473</v>
+        <v>1303.556062489475</v>
       </c>
       <c r="Y17" t="n">
-        <v>1137.059427333719</v>
+        <v>1137.059427333721</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>653.1499877197963</v>
+        <v>673.1691286109979</v>
       </c>
       <c r="C18" t="n">
-        <v>478.6969584386692</v>
+        <v>673.1691286109979</v>
       </c>
       <c r="D18" t="n">
-        <v>478.6969584386692</v>
+        <v>673.1691286109979</v>
       </c>
       <c r="E18" t="n">
-        <v>319.4595034332137</v>
+        <v>513.9316736055424</v>
       </c>
       <c r="F18" t="n">
-        <v>172.9249454600987</v>
+        <v>367.3971156324274</v>
       </c>
       <c r="G18" t="n">
-        <v>34.4027176909782</v>
+        <v>228.8748878633069</v>
       </c>
       <c r="H18" t="n">
-        <v>34.4027176909782</v>
+        <v>117.5203664001723</v>
       </c>
       <c r="I18" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="J18" t="n">
-        <v>52.97930825439948</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="K18" t="n">
-        <v>61.37842615960921</v>
+        <v>192.7739129144871</v>
       </c>
       <c r="L18" t="n">
-        <v>335.7324386438304</v>
+        <v>335.7324386438332</v>
       </c>
       <c r="M18" t="n">
-        <v>707.8698524104565</v>
+        <v>707.8698524104592</v>
       </c>
       <c r="N18" t="n">
-        <v>1105.563649577508</v>
+        <v>1105.563649577511</v>
       </c>
       <c r="O18" t="n">
-        <v>1402.960099944497</v>
+        <v>1402.960099944499</v>
       </c>
       <c r="P18" t="n">
-        <v>1624.643902620807</v>
+        <v>1624.64390262081</v>
       </c>
       <c r="Q18" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="R18" t="n">
-        <v>1631.917707333482</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="S18" t="n">
-        <v>1631.917707333482</v>
+        <v>1550.593149825888</v>
       </c>
       <c r="T18" t="n">
-        <v>1430.571907599067</v>
+        <v>1349.247350091472</v>
       </c>
       <c r="U18" t="n">
-        <v>1202.362012864947</v>
+        <v>1121.037455357352</v>
       </c>
       <c r="V18" t="n">
-        <v>967.2099046332044</v>
+        <v>911.6152887246742</v>
       </c>
       <c r="W18" t="n">
-        <v>712.9725479050028</v>
+        <v>881.0206288165307</v>
       </c>
       <c r="X18" t="n">
-        <v>712.9725479050028</v>
+        <v>673.1691286109979</v>
       </c>
       <c r="Y18" t="n">
-        <v>653.1499877197963</v>
+        <v>673.1691286109979</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="C19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="D19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="E19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="F19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="G19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="H19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="I19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="J19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="K19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="L19" t="n">
-        <v>87.19951525548645</v>
+        <v>87.19951525548649</v>
       </c>
       <c r="M19" t="n">
         <v>153.2554587245107</v>
@@ -5698,10 +5698,10 @@
         <v>289.7773628518941</v>
       </c>
       <c r="S19" t="n">
-        <v>206.9828947137859</v>
+        <v>289.7773628518941</v>
       </c>
       <c r="T19" t="n">
-        <v>201.1247413378669</v>
+        <v>283.919209475975</v>
       </c>
       <c r="U19" t="n">
         <v>135.5658363716686</v>
@@ -5710,13 +5710,13 @@
         <v>104.5240449858399</v>
       </c>
       <c r="W19" t="n">
-        <v>38.74957176893739</v>
+        <v>38.74957176893744</v>
       </c>
       <c r="X19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
     </row>
     <row r="20">
@@ -5726,70 +5726,70 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>974.5678637910264</v>
+        <v>974.5678637910265</v>
       </c>
       <c r="C20" t="n">
-        <v>829.2480436706728</v>
+        <v>829.2480436706729</v>
       </c>
       <c r="D20" t="n">
-        <v>694.6250418839804</v>
+        <v>694.6250418839805</v>
       </c>
       <c r="E20" t="n">
-        <v>532.4794861057943</v>
+        <v>532.4794861057944</v>
       </c>
       <c r="F20" t="n">
-        <v>345.1362781362449</v>
+        <v>345.136278136245</v>
       </c>
       <c r="G20" t="n">
-        <v>149.6711280670265</v>
+        <v>149.6711280670266</v>
       </c>
       <c r="H20" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="I20" t="n">
-        <v>59.95506695976071</v>
+        <v>59.95506695976076</v>
       </c>
       <c r="J20" t="n">
-        <v>80.55632850978573</v>
+        <v>264.6828023868131</v>
       </c>
       <c r="K20" t="n">
-        <v>232.1770834948136</v>
+        <v>416.3035573718411</v>
       </c>
       <c r="L20" t="n">
-        <v>472.5526648202379</v>
+        <v>656.6791386972652</v>
       </c>
       <c r="M20" t="n">
-        <v>789.0514607864304</v>
+        <v>940.7498338108305</v>
       </c>
       <c r="N20" t="n">
-        <v>1214.785092212286</v>
+        <v>1214.785092212288</v>
       </c>
       <c r="O20" t="n">
-        <v>1428.361178165078</v>
+        <v>1428.361178165081</v>
       </c>
       <c r="P20" t="n">
-        <v>1572.969043360868</v>
+        <v>1572.969043360871</v>
       </c>
       <c r="Q20" t="n">
-        <v>1604.341768018485</v>
+        <v>1604.341768018488</v>
       </c>
       <c r="R20" t="n">
-        <v>1699.166228246775</v>
+        <v>1699.166228246778</v>
       </c>
       <c r="S20" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="T20" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="U20" t="n">
-        <v>1689.925272904063</v>
+        <v>1689.925272904065</v>
       </c>
       <c r="V20" t="n">
-        <v>1582.505082380551</v>
+        <v>1582.970662081921</v>
       </c>
       <c r="W20" t="n">
-        <v>1453.379123930495</v>
+        <v>1453.844703631865</v>
       </c>
       <c r="X20" t="n">
         <v>1304.021642190844</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>663.5621696119269</v>
+        <v>517.027611638812</v>
       </c>
       <c r="C21" t="n">
-        <v>489.1091403308</v>
+        <v>342.574582357685</v>
       </c>
       <c r="D21" t="n">
-        <v>340.1747306695487</v>
+        <v>193.6401726964338</v>
       </c>
       <c r="E21" t="n">
-        <v>180.9372756640932</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="F21" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="G21" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="H21" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="I21" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="J21" t="n">
-        <v>52.97930825439948</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="K21" t="n">
-        <v>211.3505034779083</v>
+        <v>156.8704080877143</v>
       </c>
       <c r="L21" t="n">
-        <v>485.7045159621296</v>
+        <v>431.2244205719356</v>
       </c>
       <c r="M21" t="n">
-        <v>707.8698524104565</v>
+        <v>803.3618343385616</v>
       </c>
       <c r="N21" t="n">
-        <v>1105.563649577508</v>
+        <v>1201.055631505613</v>
       </c>
       <c r="O21" t="n">
-        <v>1402.960099944497</v>
+        <v>1498.452081872602</v>
       </c>
       <c r="P21" t="n">
-        <v>1624.643902620807</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="Q21" t="n">
-        <v>1720.13588454891</v>
+        <v>1720.135884548913</v>
       </c>
       <c r="R21" t="n">
-        <v>1631.917707333482</v>
+        <v>1631.917707333485</v>
       </c>
       <c r="S21" t="n">
-        <v>1631.917707333482</v>
+        <v>1462.37497261046</v>
       </c>
       <c r="T21" t="n">
-        <v>1631.917707333482</v>
+        <v>1261.029172876045</v>
       </c>
       <c r="U21" t="n">
-        <v>1513.136073742368</v>
+        <v>1032.819278141925</v>
       </c>
       <c r="V21" t="n">
-        <v>1277.983965510625</v>
+        <v>797.6671699101823</v>
       </c>
       <c r="W21" t="n">
-        <v>1247.389305602482</v>
+        <v>543.4298131819808</v>
       </c>
       <c r="X21" t="n">
-        <v>1039.537805396949</v>
+        <v>543.4298131819808</v>
       </c>
       <c r="Y21" t="n">
-        <v>831.777506631995</v>
+        <v>543.4298131819808</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="C22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="D22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="E22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="F22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="G22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="H22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="I22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="J22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="K22" t="n">
-        <v>34.4027176909782</v>
+        <v>34.40271769097825</v>
       </c>
       <c r="L22" t="n">
-        <v>87.19951525548645</v>
+        <v>87.19951525548649</v>
       </c>
       <c r="M22" t="n">
         <v>153.2554587245107</v>
@@ -5932,28 +5932,28 @@
         <v>289.7773628518941</v>
       </c>
       <c r="R22" t="n">
-        <v>289.7773628518941</v>
+        <v>209.1593080262071</v>
       </c>
       <c r="S22" t="n">
-        <v>289.7773628518941</v>
+        <v>209.1593080262071</v>
       </c>
       <c r="T22" t="n">
-        <v>283.919209475975</v>
+        <v>203.3011546502881</v>
       </c>
       <c r="U22" t="n">
-        <v>218.3603045097767</v>
+        <v>137.7422496840898</v>
       </c>
       <c r="V22" t="n">
-        <v>187.318513123948</v>
+        <v>106.7004582982611</v>
       </c>
       <c r="W22" t="n">
-        <v>121.5440399070455</v>
+        <v>40.92598508135858</v>
       </c>
       <c r="X22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.4027176909782</v>
+        <v>36.5791310033994</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>974.577365417585</v>
+        <v>974.5773654175847</v>
       </c>
       <c r="C23" t="n">
-        <v>829.2575452972314</v>
+        <v>829.2575452972311</v>
       </c>
       <c r="D23" t="n">
-        <v>694.6345435105391</v>
+        <v>694.6345435105387</v>
       </c>
       <c r="E23" t="n">
-        <v>532.4889877323529</v>
+        <v>532.4889877323526</v>
       </c>
       <c r="F23" t="n">
-        <v>345.1457797628035</v>
+        <v>345.1457797628032</v>
       </c>
       <c r="G23" t="n">
         <v>149.6806296935851</v>
@@ -5984,34 +5984,34 @@
         <v>34.41221931753678</v>
       </c>
       <c r="I23" t="n">
-        <v>34.41221931753678</v>
+        <v>59.96456858631929</v>
       </c>
       <c r="J23" t="n">
-        <v>55.0134808675618</v>
+        <v>80.5658301363443</v>
       </c>
       <c r="K23" t="n">
-        <v>206.6342358525897</v>
+        <v>416.7786386997676</v>
       </c>
       <c r="L23" t="n">
-        <v>447.0098171780139</v>
+        <v>657.1542200251918</v>
       </c>
       <c r="M23" t="n">
-        <v>731.0805122915792</v>
+        <v>941.2249151387571</v>
       </c>
       <c r="N23" t="n">
-        <v>1005.115770693037</v>
+        <v>1215.260173540215</v>
       </c>
       <c r="O23" t="n">
-        <v>1218.69185664583</v>
+        <v>1428.836259493008</v>
       </c>
       <c r="P23" t="n">
-        <v>1470.046034065884</v>
+        <v>1573.444124688798</v>
       </c>
       <c r="Q23" t="n">
-        <v>1720.610965876839</v>
+        <v>1604.816849346414</v>
       </c>
       <c r="R23" t="n">
-        <v>1720.610965876839</v>
+        <v>1699.641309574704</v>
       </c>
       <c r="S23" t="n">
         <v>1720.610965876839</v>
@@ -6020,7 +6020,7 @@
         <v>1720.610965876839</v>
       </c>
       <c r="U23" t="n">
-        <v>1690.400354231993</v>
+        <v>1690.400354231992</v>
       </c>
       <c r="V23" t="n">
         <v>1582.98016370848</v>
@@ -6032,7 +6032,7 @@
         <v>1304.031143817402</v>
       </c>
       <c r="Y23" t="n">
-        <v>1137.534508661649</v>
+        <v>1137.534508661648</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>625.7085726947964</v>
+        <v>517.0371132653705</v>
       </c>
       <c r="C24" t="n">
-        <v>572.2362906665526</v>
+        <v>342.5840839842435</v>
       </c>
       <c r="D24" t="n">
-        <v>423.3018810053014</v>
+        <v>193.6496743229923</v>
       </c>
       <c r="E24" t="n">
-        <v>264.0644259998459</v>
+        <v>34.41221931753678</v>
       </c>
       <c r="F24" t="n">
-        <v>117.5298680267309</v>
+        <v>34.41221931753678</v>
       </c>
       <c r="G24" t="n">
-        <v>117.5298680267309</v>
+        <v>34.41221931753678</v>
       </c>
       <c r="H24" t="n">
-        <v>117.5298680267309</v>
+        <v>34.41221931753678</v>
       </c>
       <c r="I24" t="n">
         <v>34.41221931753678</v>
       </c>
       <c r="J24" t="n">
-        <v>52.98880988095806</v>
+        <v>34.41221931753678</v>
       </c>
       <c r="K24" t="n">
-        <v>61.85350748753848</v>
+        <v>157.3454894156409</v>
       </c>
       <c r="L24" t="n">
-        <v>336.2075199717597</v>
+        <v>431.6995018998621</v>
       </c>
       <c r="M24" t="n">
-        <v>708.3449337383857</v>
+        <v>803.8369156664882</v>
       </c>
       <c r="N24" t="n">
-        <v>1106.038730905437</v>
+        <v>1201.53071283354</v>
       </c>
       <c r="O24" t="n">
-        <v>1403.435181272426</v>
+        <v>1498.927163200528</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.118983948737</v>
+        <v>1720.610965876839</v>
       </c>
       <c r="Q24" t="n">
         <v>1720.610965876839</v>
@@ -6093,25 +6093,25 @@
         <v>1720.610965876839</v>
       </c>
       <c r="S24" t="n">
-        <v>1551.068231153814</v>
+        <v>1720.610965876839</v>
       </c>
       <c r="T24" t="n">
-        <v>1551.068231153814</v>
+        <v>1720.610965876839</v>
       </c>
       <c r="U24" t="n">
-        <v>1322.858336419695</v>
+        <v>1590.253714215869</v>
       </c>
       <c r="V24" t="n">
-        <v>1087.706228187952</v>
+        <v>1355.101605984127</v>
       </c>
       <c r="W24" t="n">
-        <v>833.4688714597503</v>
+        <v>1100.864249255925</v>
       </c>
       <c r="X24" t="n">
-        <v>833.4688714597503</v>
+        <v>893.0127490503924</v>
       </c>
       <c r="Y24" t="n">
-        <v>625.7085726947964</v>
+        <v>685.2524502854385</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="C25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="D25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="E25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="F25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="G25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="H25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="I25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="J25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="K25" t="n">
         <v>34.41221931753678</v>
@@ -6172,25 +6172,25 @@
         <v>289.7868644784526</v>
       </c>
       <c r="S25" t="n">
-        <v>289.7868644784526</v>
+        <v>209.1688096527657</v>
       </c>
       <c r="T25" t="n">
-        <v>283.9287111025336</v>
+        <v>203.3106562768467</v>
       </c>
       <c r="U25" t="n">
-        <v>135.5753379982272</v>
+        <v>137.7517513106483</v>
       </c>
       <c r="V25" t="n">
-        <v>104.5335466123985</v>
+        <v>106.7099599248196</v>
       </c>
       <c r="W25" t="n">
-        <v>38.75907339549597</v>
+        <v>40.93548670791711</v>
       </c>
       <c r="X25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.41221931753678</v>
+        <v>36.58863262995793</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1429.039450323993</v>
       </c>
       <c r="C26" t="n">
-        <v>1217.815731156845</v>
+        <v>1217.815731156846</v>
       </c>
       <c r="D26" t="n">
-        <v>1017.288830323359</v>
+        <v>1017.28883032336</v>
       </c>
       <c r="E26" t="n">
-        <v>789.2393754983791</v>
+        <v>789.2393754983797</v>
       </c>
       <c r="F26" t="n">
-        <v>535.9922684820364</v>
+        <v>535.9922684820365</v>
       </c>
       <c r="G26" t="n">
-        <v>274.6232193660242</v>
+        <v>274.6232193660244</v>
       </c>
       <c r="H26" t="n">
         <v>93.45090994318195</v>
@@ -6224,16 +6224,16 @@
         <v>53.61817635785383</v>
       </c>
       <c r="J26" t="n">
-        <v>228.8192336054555</v>
+        <v>228.8192336054552</v>
       </c>
       <c r="K26" t="n">
-        <v>535.0397842880598</v>
+        <v>535.0397842880595</v>
       </c>
       <c r="L26" t="n">
-        <v>930.0151613110603</v>
+        <v>930.0151613110597</v>
       </c>
       <c r="M26" t="n">
-        <v>1368.685652122202</v>
+        <v>1368.685652122201</v>
       </c>
       <c r="N26" t="n">
         <v>1797.320706221236</v>
@@ -6254,10 +6254,10 @@
         <v>2636.400344110804</v>
       </c>
       <c r="T26" t="n">
-        <v>2570.49644506401</v>
+        <v>2570.496445064011</v>
       </c>
       <c r="U26" t="n">
-        <v>2474.381934372369</v>
+        <v>2474.38193437237</v>
       </c>
       <c r="V26" t="n">
         <v>2301.057844802063</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>374.7471881652899</v>
+        <v>690.2247837118184</v>
       </c>
       <c r="C27" t="n">
-        <v>200.2941588841628</v>
+        <v>515.7717544306914</v>
       </c>
       <c r="D27" t="n">
-        <v>200.2941588841628</v>
+        <v>366.8373447694402</v>
       </c>
       <c r="E27" t="n">
-        <v>136.7358250670479</v>
+        <v>207.5998897639847</v>
       </c>
       <c r="F27" t="n">
-        <v>136.7358250670479</v>
+        <v>61.06533179086964</v>
       </c>
       <c r="G27" t="n">
-        <v>136.7358250670479</v>
+        <v>53.61817635785383</v>
       </c>
       <c r="H27" t="n">
-        <v>136.7358250670479</v>
+        <v>53.61817635785383</v>
       </c>
       <c r="I27" t="n">
         <v>53.61817635785383</v>
@@ -6333,22 +6333,22 @@
         <v>1877.519483584324</v>
       </c>
       <c r="T27" t="n">
-        <v>1676.173683849909</v>
+        <v>1833.912481623173</v>
       </c>
       <c r="U27" t="n">
-        <v>1447.963789115789</v>
+        <v>1605.702586889053</v>
       </c>
       <c r="V27" t="n">
-        <v>1212.811680884046</v>
+        <v>1528.289276430575</v>
       </c>
       <c r="W27" t="n">
-        <v>958.5743241558446</v>
+        <v>1274.051919702373</v>
       </c>
       <c r="X27" t="n">
-        <v>750.7228239503117</v>
+        <v>1066.20041949684</v>
       </c>
       <c r="Y27" t="n">
-        <v>542.9625251853579</v>
+        <v>858.4401207318865</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.81556151249644</v>
+        <v>64.81556151249639</v>
       </c>
       <c r="C28" t="n">
         <v>53.61817635785383</v>
       </c>
       <c r="D28" t="n">
-        <v>61.08865376739994</v>
+        <v>53.61817635785383</v>
       </c>
       <c r="E28" t="n">
-        <v>70.7188264448728</v>
+        <v>63.24834903532675</v>
       </c>
       <c r="F28" t="n">
-        <v>81.35178459974721</v>
+        <v>73.88130719020121</v>
       </c>
       <c r="G28" t="n">
-        <v>69.57760569622971</v>
+        <v>62.10712828668378</v>
       </c>
       <c r="H28" t="n">
-        <v>65.0054260476451</v>
+        <v>57.53494863809923</v>
       </c>
       <c r="I28" t="n">
-        <v>70.86375082233411</v>
+        <v>63.39327341278829</v>
       </c>
       <c r="J28" t="n">
-        <v>145.1560176684008</v>
+        <v>137.685540258855</v>
       </c>
       <c r="K28" t="n">
-        <v>297.6227106784731</v>
+        <v>290.1522332689274</v>
       </c>
       <c r="L28" t="n">
-        <v>505.0193039405577</v>
+        <v>497.5488265310121</v>
       </c>
       <c r="M28" t="n">
-        <v>571.0752474095819</v>
+        <v>596.3318073332448</v>
       </c>
       <c r="N28" t="n">
-        <v>640.995144607059</v>
+        <v>666.2517045307219</v>
       </c>
       <c r="O28" t="n">
-        <v>689.561191017735</v>
+        <v>714.8177509413979</v>
       </c>
       <c r="P28" t="n">
-        <v>732.8537114606287</v>
+        <v>732.8537114606281</v>
       </c>
       <c r="Q28" t="n">
-        <v>732.8537114606287</v>
+        <v>732.8537114606281</v>
       </c>
       <c r="R28" t="n">
-        <v>719.3715729484871</v>
+        <v>719.3715729484866</v>
       </c>
       <c r="S28" t="n">
-        <v>653.8786821965147</v>
+        <v>653.8786821965142</v>
       </c>
       <c r="T28" t="n">
-        <v>582.1166297738018</v>
+        <v>582.1166297738014</v>
       </c>
       <c r="U28" t="n">
-        <v>450.6538257608096</v>
+        <v>450.6538257608092</v>
       </c>
       <c r="V28" t="n">
-        <v>353.708135328187</v>
+        <v>353.7081353281867</v>
       </c>
       <c r="W28" t="n">
-        <v>222.0297630644907</v>
+        <v>222.0297630644905</v>
       </c>
       <c r="X28" t="n">
-        <v>151.7790099397376</v>
+        <v>151.7790099397375</v>
       </c>
       <c r="Y28" t="n">
-        <v>88.72522856947184</v>
+        <v>88.72522856947172</v>
       </c>
     </row>
     <row r="29">
@@ -6446,37 +6446,37 @@
         <v>1017.288830323359</v>
       </c>
       <c r="E29" t="n">
-        <v>789.2393754983794</v>
+        <v>789.2393754983793</v>
       </c>
       <c r="F29" t="n">
-        <v>535.9922684820363</v>
+        <v>535.9922684820361</v>
       </c>
       <c r="G29" t="n">
-        <v>274.6232193660241</v>
+        <v>274.6232193660239</v>
       </c>
       <c r="H29" t="n">
-        <v>93.45090994318194</v>
+        <v>93.45090994318198</v>
       </c>
       <c r="I29" t="n">
-        <v>53.61817635785383</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="J29" t="n">
-        <v>228.8192336054545</v>
+        <v>228.8192336054553</v>
       </c>
       <c r="K29" t="n">
-        <v>535.0397842880589</v>
+        <v>535.0397842880595</v>
       </c>
       <c r="L29" t="n">
-        <v>930.0151613110593</v>
+        <v>930.01516131106</v>
       </c>
       <c r="M29" t="n">
-        <v>1368.685652122201</v>
+        <v>1368.685652122202</v>
       </c>
       <c r="N29" t="n">
         <v>1797.320706221235</v>
       </c>
       <c r="O29" t="n">
-        <v>2165.496587871604</v>
+        <v>2165.496587871605</v>
       </c>
       <c r="P29" t="n">
         <v>2464.704248764971</v>
@@ -6488,16 +6488,16 @@
         <v>2680.908817892692</v>
       </c>
       <c r="S29" t="n">
-        <v>2636.400344110803</v>
+        <v>2636.400344110805</v>
       </c>
       <c r="T29" t="n">
-        <v>2570.49644506401</v>
+        <v>2570.496445064011</v>
       </c>
       <c r="U29" t="n">
         <v>2474.381934372369</v>
       </c>
       <c r="V29" t="n">
-        <v>2301.057844802062</v>
+        <v>2301.057844802063</v>
       </c>
       <c r="W29" t="n">
         <v>2106.027987305213</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>847.9635814850826</v>
+        <v>378.5042725324233</v>
       </c>
       <c r="C30" t="n">
-        <v>673.5105522039556</v>
+        <v>204.0512432512963</v>
       </c>
       <c r="D30" t="n">
-        <v>524.5761425427044</v>
+        <v>55.11683359004502</v>
       </c>
       <c r="E30" t="n">
-        <v>365.3386875372489</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="F30" t="n">
-        <v>218.8041295641338</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="G30" t="n">
-        <v>164.9726978209884</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="H30" t="n">
-        <v>53.61817635785383</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="I30" t="n">
-        <v>53.61817635785383</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="J30" t="n">
-        <v>72.19476692127512</v>
+        <v>72.19476692127513</v>
       </c>
       <c r="K30" t="n">
         <v>230.565962144784</v>
@@ -6567,25 +6567,25 @@
         <v>1889.323420534085</v>
       </c>
       <c r="S30" t="n">
-        <v>1877.519483584324</v>
+        <v>1719.78068581106</v>
       </c>
       <c r="T30" t="n">
-        <v>1833.912481623173</v>
+        <v>1676.173683849908</v>
       </c>
       <c r="U30" t="n">
-        <v>1763.441384662317</v>
+        <v>1451.720873482922</v>
       </c>
       <c r="V30" t="n">
-        <v>1686.028074203839</v>
+        <v>1216.56876525118</v>
       </c>
       <c r="W30" t="n">
-        <v>1431.790717475637</v>
+        <v>962.3314085229781</v>
       </c>
       <c r="X30" t="n">
-        <v>1223.939217270105</v>
+        <v>754.4799083174453</v>
       </c>
       <c r="Y30" t="n">
-        <v>1016.178918505151</v>
+        <v>546.7196095524914</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.16192006459836</v>
+        <v>81.16192006459846</v>
       </c>
       <c r="C31" t="n">
-        <v>69.96453490995582</v>
+        <v>69.96453490995589</v>
       </c>
       <c r="D31" t="n">
-        <v>69.96453490995582</v>
+        <v>69.96453490995589</v>
       </c>
       <c r="E31" t="n">
-        <v>69.96453490995582</v>
+        <v>69.96453490995589</v>
       </c>
       <c r="F31" t="n">
-        <v>69.96453490995582</v>
+        <v>69.96453490995589</v>
       </c>
       <c r="G31" t="n">
-        <v>58.19035600643839</v>
+        <v>58.19035600643843</v>
       </c>
       <c r="H31" t="n">
-        <v>53.61817635785383</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="I31" t="n">
-        <v>53.61817635785383</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="J31" t="n">
-        <v>53.61817635785383</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0848693679262</v>
+        <v>53.61817635785385</v>
       </c>
       <c r="L31" t="n">
-        <v>413.4814626300109</v>
+        <v>106.4149739223621</v>
       </c>
       <c r="M31" t="n">
-        <v>479.5374060990351</v>
+        <v>327.0707130889627</v>
       </c>
       <c r="N31" t="n">
-        <v>598.9461833608</v>
+        <v>396.9906102864398</v>
       </c>
       <c r="O31" t="n">
-        <v>647.512229771476</v>
+        <v>600.1564523946922</v>
       </c>
       <c r="P31" t="n">
-        <v>665.5481902907062</v>
+        <v>665.5481902907065</v>
       </c>
       <c r="Q31" t="n">
-        <v>749.2000700127301</v>
+        <v>749.2000700127303</v>
       </c>
       <c r="R31" t="n">
-        <v>735.7179315005885</v>
+        <v>735.7179315005887</v>
       </c>
       <c r="S31" t="n">
-        <v>670.2250407486162</v>
+        <v>670.2250407486164</v>
       </c>
       <c r="T31" t="n">
-        <v>598.4629883259033</v>
+        <v>598.4629883259036</v>
       </c>
       <c r="U31" t="n">
-        <v>467.0001843129112</v>
+        <v>467.0001843129114</v>
       </c>
       <c r="V31" t="n">
-        <v>370.0544938802886</v>
+        <v>370.0544938802889</v>
       </c>
       <c r="W31" t="n">
-        <v>238.3761216165924</v>
+        <v>238.3761216165926</v>
       </c>
       <c r="X31" t="n">
-        <v>168.1253684918394</v>
+        <v>168.1253684918396</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.0715871215737</v>
+        <v>105.0715871215738</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>1056.177675431114</v>
       </c>
       <c r="C32" t="n">
-        <v>897.8337015952457</v>
+        <v>897.8337015952462</v>
       </c>
       <c r="D32" t="n">
-        <v>750.1865460930389</v>
+        <v>750.1865460930394</v>
       </c>
       <c r="E32" t="n">
-        <v>575.0168365993386</v>
+        <v>575.0168365993388</v>
       </c>
       <c r="F32" t="n">
-        <v>374.6494749142748</v>
+        <v>374.6494749142751</v>
       </c>
       <c r="G32" t="n">
         <v>166.1601711295422</v>
@@ -6695,28 +6695,28 @@
         <v>37.8676070379794</v>
       </c>
       <c r="I32" t="n">
-        <v>37.8676070379794</v>
+        <v>50.65498325018618</v>
       </c>
       <c r="J32" t="n">
-        <v>264.8961026847677</v>
+        <v>71.25624480021119</v>
       </c>
       <c r="K32" t="n">
-        <v>416.5168576697956</v>
+        <v>222.8769997852391</v>
       </c>
       <c r="L32" t="n">
-        <v>656.8924389952198</v>
+        <v>463.2525811106633</v>
       </c>
       <c r="M32" t="n">
-        <v>940.9631341087851</v>
+        <v>747.3232762242286</v>
       </c>
       <c r="N32" t="n">
-        <v>1214.998392510243</v>
+        <v>1021.358534625687</v>
       </c>
       <c r="O32" t="n">
-        <v>1428.574478463036</v>
+        <v>1441.361854675243</v>
       </c>
       <c r="P32" t="n">
-        <v>1647.375709899031</v>
+        <v>1792.396953967796</v>
       </c>
       <c r="Q32" t="n">
         <v>1885.175668653411</v>
@@ -6728,13 +6728,13 @@
         <v>1893.38035189897</v>
       </c>
       <c r="T32" t="n">
-        <v>1880.356198183455</v>
+        <v>1880.356198183456</v>
       </c>
       <c r="U32" t="n">
         <v>1837.121432823094</v>
       </c>
       <c r="V32" t="n">
-        <v>1716.677088584066</v>
+        <v>1716.677088584067</v>
       </c>
       <c r="W32" t="n">
         <v>1574.526976418496</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>667.0270589589283</v>
+        <v>361.2550459803577</v>
       </c>
       <c r="C33" t="n">
-        <v>492.5740296778012</v>
+        <v>186.8020166992307</v>
       </c>
       <c r="D33" t="n">
-        <v>343.6396200165499</v>
+        <v>37.8676070379794</v>
       </c>
       <c r="E33" t="n">
-        <v>184.4021650110944</v>
+        <v>37.8676070379794</v>
       </c>
       <c r="F33" t="n">
         <v>37.8676070379794</v>
@@ -6777,7 +6777,7 @@
         <v>37.8676070379794</v>
       </c>
       <c r="J33" t="n">
-        <v>56.44419760140067</v>
+        <v>56.44419760140069</v>
       </c>
       <c r="K33" t="n">
         <v>214.8153928249095</v>
@@ -6801,28 +6801,28 @@
         <v>1873.57285121421</v>
       </c>
       <c r="R33" t="n">
-        <v>1785.354673998783</v>
+        <v>1873.57285121421</v>
       </c>
       <c r="S33" t="n">
-        <v>1785.354673998783</v>
+        <v>1864.027341399392</v>
       </c>
       <c r="T33" t="n">
-        <v>1785.354673998783</v>
+        <v>1662.681541664977</v>
       </c>
       <c r="U33" t="n">
-        <v>1557.144779264663</v>
+        <v>1434.471646930857</v>
       </c>
       <c r="V33" t="n">
-        <v>1321.99267103292</v>
+        <v>1199.319538699114</v>
       </c>
       <c r="W33" t="n">
-        <v>1067.755314304718</v>
+        <v>945.0821819709124</v>
       </c>
       <c r="X33" t="n">
-        <v>874.7873577238822</v>
+        <v>737.2306817653796</v>
       </c>
       <c r="Y33" t="n">
-        <v>667.0270589589283</v>
+        <v>529.4703830004257</v>
       </c>
     </row>
     <row r="34">
@@ -6880,25 +6880,25 @@
         <v>293.2422521988952</v>
       </c>
       <c r="R34" t="n">
-        <v>298.3557340980386</v>
+        <v>298.355734098039</v>
       </c>
       <c r="S34" t="n">
-        <v>285.7425886773456</v>
+        <v>285.7425886773459</v>
       </c>
       <c r="T34" t="n">
-        <v>266.8602815859122</v>
+        <v>266.8602815859124</v>
       </c>
       <c r="U34" t="n">
-        <v>188.2772229041994</v>
+        <v>188.2772229041996</v>
       </c>
       <c r="V34" t="n">
-        <v>144.2112778028563</v>
+        <v>144.2112778028564</v>
       </c>
       <c r="W34" t="n">
-        <v>65.41265087043936</v>
+        <v>65.41265087043949</v>
       </c>
       <c r="X34" t="n">
-        <v>48.04164307696577</v>
+        <v>48.04164307696583</v>
       </c>
       <c r="Y34" t="n">
         <v>37.8676070379794</v>
@@ -6914,52 +6914,52 @@
         <v>1046.631517330296</v>
       </c>
       <c r="C35" t="n">
-        <v>889.8111973932553</v>
+        <v>889.8111973932557</v>
       </c>
       <c r="D35" t="n">
-        <v>743.6876957898762</v>
+        <v>743.6876957898767</v>
       </c>
       <c r="E35" t="n">
-        <v>570.0416401950034</v>
+        <v>570.0416401950038</v>
       </c>
       <c r="F35" t="n">
-        <v>371.1979324087672</v>
+        <v>371.1979324087676</v>
       </c>
       <c r="G35" t="n">
-        <v>164.2322825228623</v>
+        <v>164.2322825228622</v>
       </c>
       <c r="H35" t="n">
         <v>37.46337233012716</v>
       </c>
       <c r="I35" t="n">
-        <v>51.74408172857491</v>
+        <v>51.74408172857497</v>
       </c>
       <c r="J35" t="n">
-        <v>280.2659105616041</v>
+        <v>280.2659105616042</v>
       </c>
       <c r="K35" t="n">
-        <v>431.8866655466321</v>
+        <v>477.2098385767072</v>
       </c>
       <c r="L35" t="n">
-        <v>832.2551503953803</v>
+        <v>925.5059871851356</v>
       </c>
       <c r="M35" t="n">
-        <v>1116.325845508946</v>
+        <v>1209.576682298701</v>
       </c>
       <c r="N35" t="n">
-        <v>1390.361103910403</v>
+        <v>1483.611940700159</v>
       </c>
       <c r="O35" t="n">
-        <v>1603.937189863196</v>
+        <v>1697.188026652952</v>
       </c>
       <c r="P35" t="n">
-        <v>1748.545055058986</v>
+        <v>1841.795891848741</v>
       </c>
       <c r="Q35" t="n">
-        <v>1779.917779716603</v>
+        <v>1873.168616506358</v>
       </c>
       <c r="R35" t="n">
-        <v>1863.470600074558</v>
+        <v>1873.168616506358</v>
       </c>
       <c r="S35" t="n">
         <v>1873.168616506358</v>
@@ -6977,7 +6977,7 @@
         <v>1560.409856621195</v>
       </c>
       <c r="X35" t="n">
-        <v>1399.086295363486</v>
+        <v>1399.086295363487</v>
       </c>
       <c r="Y35" t="n">
         <v>1221.089160391046</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>749.74047296027</v>
+        <v>996.0265148284818</v>
       </c>
       <c r="C36" t="n">
-        <v>575.2874436791431</v>
+        <v>821.5734855473548</v>
       </c>
       <c r="D36" t="n">
-        <v>426.3530340178917</v>
+        <v>672.6390758861036</v>
       </c>
       <c r="E36" t="n">
-        <v>267.1155790124362</v>
+        <v>513.4016208806481</v>
       </c>
       <c r="F36" t="n">
-        <v>120.5810210393212</v>
+        <v>366.8670629075331</v>
       </c>
       <c r="G36" t="n">
-        <v>120.5810210393212</v>
+        <v>228.3448351384125</v>
       </c>
       <c r="H36" t="n">
         <v>120.5810210393212</v>
@@ -7014,16 +7014,16 @@
         <v>37.46337233012716</v>
       </c>
       <c r="J36" t="n">
-        <v>56.03996289354859</v>
+        <v>56.03996289354845</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4111581170575</v>
+        <v>214.4111581170573</v>
       </c>
       <c r="L36" t="n">
-        <v>488.7651706012788</v>
+        <v>488.7651706012786</v>
       </c>
       <c r="M36" t="n">
-        <v>860.9025843679049</v>
+        <v>860.9025843679046</v>
       </c>
       <c r="N36" t="n">
         <v>1258.596381534956</v>
@@ -7038,28 +7038,28 @@
         <v>1873.168616506358</v>
       </c>
       <c r="R36" t="n">
-        <v>1784.950439290931</v>
+        <v>1873.168616506358</v>
       </c>
       <c r="S36" t="n">
-        <v>1631.264472876564</v>
+        <v>1873.168616506358</v>
       </c>
       <c r="T36" t="n">
-        <v>1631.264472876564</v>
+        <v>1873.168616506358</v>
       </c>
       <c r="U36" t="n">
-        <v>1615.196775145815</v>
+        <v>1857.100918775609</v>
       </c>
       <c r="V36" t="n">
-        <v>1380.044666914072</v>
+        <v>1834.091007547238</v>
       </c>
       <c r="W36" t="n">
-        <v>1125.807310185871</v>
+        <v>1579.853650819037</v>
       </c>
       <c r="X36" t="n">
-        <v>917.955809980338</v>
+        <v>1372.002150613504</v>
       </c>
       <c r="Y36" t="n">
-        <v>917.955809980338</v>
+        <v>1164.24185184855</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="C37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="D37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="E37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="F37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="G37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="H37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="I37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="J37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="K37" t="n">
         <v>37.46337233012716</v>
       </c>
       <c r="L37" t="n">
-        <v>90.26016989463541</v>
+        <v>90.2601698946354</v>
       </c>
       <c r="M37" t="n">
         <v>156.3161133636596</v>
@@ -7120,25 +7120,25 @@
         <v>292.8380174910429</v>
       </c>
       <c r="S37" t="n">
-        <v>281.7485259691775</v>
+        <v>276.1964305765275</v>
       </c>
       <c r="T37" t="n">
-        <v>264.3898727765717</v>
+        <v>258.8377773839217</v>
       </c>
       <c r="U37" t="n">
-        <v>187.3304679936865</v>
+        <v>181.7783726010366</v>
       </c>
       <c r="V37" t="n">
-        <v>144.7881767911709</v>
+        <v>139.2360813985211</v>
       </c>
       <c r="W37" t="n">
-        <v>64.13752167735311</v>
+        <v>61.96110836493183</v>
       </c>
       <c r="X37" t="n">
-        <v>48.29016778270709</v>
+        <v>46.11375447028588</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.63978564254831</v>
+        <v>37.46337233012716</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1046.631517330296</v>
+        <v>1046.631517330295</v>
       </c>
       <c r="C38" t="n">
-        <v>889.8111973932558</v>
+        <v>889.811197393255</v>
       </c>
       <c r="D38" t="n">
-        <v>743.6876957898767</v>
+        <v>743.687695789876</v>
       </c>
       <c r="E38" t="n">
-        <v>570.0416401950038</v>
+        <v>570.0416401950031</v>
       </c>
       <c r="F38" t="n">
-        <v>371.1979324087675</v>
+        <v>371.197932408767</v>
       </c>
       <c r="G38" t="n">
-        <v>164.2322825228623</v>
+        <v>164.2322825228622</v>
       </c>
       <c r="H38" t="n">
-        <v>37.46337233012716</v>
+        <v>37.46337233012714</v>
       </c>
       <c r="I38" t="n">
-        <v>51.74408172857491</v>
+        <v>37.46337233012714</v>
       </c>
       <c r="J38" t="n">
-        <v>72.34534327859993</v>
+        <v>58.06463388015216</v>
       </c>
       <c r="K38" t="n">
-        <v>223.9660982636279</v>
+        <v>209.6853888651801</v>
       </c>
       <c r="L38" t="n">
-        <v>672.2622468720563</v>
+        <v>450.0609701906043</v>
       </c>
       <c r="M38" t="n">
-        <v>956.3329419856216</v>
+        <v>734.1316653041696</v>
       </c>
       <c r="N38" t="n">
-        <v>1390.361103910403</v>
+        <v>1008.166923705628</v>
       </c>
       <c r="O38" t="n">
-        <v>1603.937189863196</v>
+        <v>1221.74300965842</v>
       </c>
       <c r="P38" t="n">
-        <v>1748.545055058986</v>
+        <v>1540.62448777598</v>
       </c>
       <c r="Q38" t="n">
-        <v>1779.917779716603</v>
+        <v>1779.917779716601</v>
       </c>
       <c r="R38" t="n">
-        <v>1863.470600074558</v>
+        <v>1863.470600074557</v>
       </c>
       <c r="S38" t="n">
-        <v>1873.168616506358</v>
+        <v>1873.168616506357</v>
       </c>
       <c r="T38" t="n">
         <v>1861.668116689671</v>
       </c>
       <c r="U38" t="n">
-        <v>1819.957005228138</v>
+        <v>1819.957005228136</v>
       </c>
       <c r="V38" t="n">
-        <v>1701.036314887938</v>
+        <v>1701.036314887937</v>
       </c>
       <c r="W38" t="n">
-        <v>1560.409856621196</v>
+        <v>1560.409856621194</v>
       </c>
       <c r="X38" t="n">
-        <v>1399.086295363487</v>
+        <v>1399.086295363486</v>
       </c>
       <c r="Y38" t="n">
-        <v>1221.089160391047</v>
+        <v>1221.089160391045</v>
       </c>
     </row>
     <row r="39">
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>701.8575394179491</v>
+        <v>861.0949944234045</v>
       </c>
       <c r="C39" t="n">
-        <v>527.4045101368221</v>
+        <v>686.6419651422775</v>
       </c>
       <c r="D39" t="n">
-        <v>378.4701004755708</v>
+        <v>537.7075554810262</v>
       </c>
       <c r="E39" t="n">
         <v>378.4701004755708</v>
@@ -7248,55 +7248,55 @@
         <v>120.5810210393212</v>
       </c>
       <c r="I39" t="n">
-        <v>37.46337233012716</v>
+        <v>37.46337233012714</v>
       </c>
       <c r="J39" t="n">
-        <v>56.03996289354859</v>
+        <v>56.03996289354751</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4111581170573</v>
+        <v>214.4111581170563</v>
       </c>
       <c r="L39" t="n">
-        <v>488.7651706012787</v>
+        <v>488.7651706012776</v>
       </c>
       <c r="M39" t="n">
-        <v>860.9025843679045</v>
+        <v>860.9025843679036</v>
       </c>
       <c r="N39" t="n">
-        <v>1258.596381534956</v>
+        <v>1258.596381534955</v>
       </c>
       <c r="O39" t="n">
-        <v>1555.992831901945</v>
+        <v>1555.992831901944</v>
       </c>
       <c r="P39" t="n">
-        <v>1777.676634578256</v>
+        <v>1777.676634578255</v>
       </c>
       <c r="Q39" t="n">
-        <v>1873.168616506358</v>
+        <v>1873.168616506357</v>
       </c>
       <c r="R39" t="n">
-        <v>1795.523736337614</v>
+        <v>1873.168616506357</v>
       </c>
       <c r="S39" t="n">
-        <v>1795.523736337614</v>
+        <v>1873.168616506357</v>
       </c>
       <c r="T39" t="n">
-        <v>1795.523736337614</v>
+        <v>1873.168616506357</v>
       </c>
       <c r="U39" t="n">
-        <v>1567.313841603494</v>
+        <v>1857.100918775609</v>
       </c>
       <c r="V39" t="n">
-        <v>1332.161733371752</v>
+        <v>1699.159487142161</v>
       </c>
       <c r="W39" t="n">
-        <v>1077.92437664355</v>
+        <v>1444.922130413959</v>
       </c>
       <c r="X39" t="n">
-        <v>870.0728764380171</v>
+        <v>1237.070630208426</v>
       </c>
       <c r="Y39" t="n">
-        <v>870.0728764380171</v>
+        <v>1029.310331443472</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39.63978564254831</v>
+        <v>43.01546772277725</v>
       </c>
       <c r="C40" t="n">
-        <v>39.63978564254831</v>
+        <v>43.01546772277725</v>
       </c>
       <c r="D40" t="n">
-        <v>39.63978564254831</v>
+        <v>43.01546772277725</v>
       </c>
       <c r="E40" t="n">
-        <v>39.63978564254831</v>
+        <v>43.01546772277725</v>
       </c>
       <c r="F40" t="n">
-        <v>39.63978564254831</v>
+        <v>43.01546772277725</v>
       </c>
       <c r="G40" t="n">
-        <v>39.63978564254831</v>
+        <v>39.63978564254829</v>
       </c>
       <c r="H40" t="n">
-        <v>39.63978564254831</v>
+        <v>39.63978564254829</v>
       </c>
       <c r="I40" t="n">
-        <v>39.63978564254831</v>
+        <v>39.63978564254829</v>
       </c>
       <c r="J40" t="n">
-        <v>39.63978564254831</v>
+        <v>39.63978564254829</v>
       </c>
       <c r="K40" t="n">
-        <v>37.46337233012716</v>
+        <v>37.46337233012714</v>
       </c>
       <c r="L40" t="n">
-        <v>90.26016989463541</v>
+        <v>90.2601698946354</v>
       </c>
       <c r="M40" t="n">
         <v>156.3161133636596</v>
@@ -7357,25 +7357,25 @@
         <v>292.8380174910429</v>
       </c>
       <c r="S40" t="n">
-        <v>281.7485259691775</v>
+        <v>281.7485259691776</v>
       </c>
       <c r="T40" t="n">
-        <v>264.3898727765717</v>
+        <v>264.3898727765718</v>
       </c>
       <c r="U40" t="n">
-        <v>187.3304679936865</v>
+        <v>187.3304679936867</v>
       </c>
       <c r="V40" t="n">
-        <v>144.7881767911709</v>
+        <v>144.7881767911712</v>
       </c>
       <c r="W40" t="n">
-        <v>64.13752167735311</v>
+        <v>67.51320375758192</v>
       </c>
       <c r="X40" t="n">
-        <v>48.29016778270709</v>
+        <v>51.66584986293596</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.63978564254831</v>
+        <v>43.01546772277725</v>
       </c>
     </row>
     <row r="41">
@@ -7385,55 +7385,55 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1046.631517330296</v>
+        <v>1046.631517330295</v>
       </c>
       <c r="C41" t="n">
-        <v>889.8111973932554</v>
+        <v>889.8111973932547</v>
       </c>
       <c r="D41" t="n">
-        <v>743.6876957898762</v>
+        <v>743.6876957898758</v>
       </c>
       <c r="E41" t="n">
         <v>570.0416401950033</v>
       </c>
       <c r="F41" t="n">
-        <v>371.1979324087671</v>
+        <v>371.1979324087672</v>
       </c>
       <c r="G41" t="n">
-        <v>164.2322825228623</v>
+        <v>164.2322825228622</v>
       </c>
       <c r="H41" t="n">
         <v>37.46337233012716</v>
       </c>
       <c r="I41" t="n">
-        <v>51.74408172857494</v>
+        <v>51.74408172857497</v>
       </c>
       <c r="J41" t="n">
-        <v>280.2659105616042</v>
+        <v>72.34534327859998</v>
       </c>
       <c r="K41" t="n">
-        <v>431.8866655466321</v>
+        <v>223.9660982636279</v>
       </c>
       <c r="L41" t="n">
-        <v>841.95316682718</v>
+        <v>464.3416795890521</v>
       </c>
       <c r="M41" t="n">
-        <v>1126.023861940745</v>
+        <v>927.9509121743756</v>
       </c>
       <c r="N41" t="n">
-        <v>1400.059120342203</v>
+        <v>1390.361103910403</v>
       </c>
       <c r="O41" t="n">
-        <v>1613.635206294996</v>
+        <v>1603.937189863196</v>
       </c>
       <c r="P41" t="n">
-        <v>1758.243071490786</v>
+        <v>1748.545055058986</v>
       </c>
       <c r="Q41" t="n">
-        <v>1789.615796148402</v>
+        <v>1779.917779716602</v>
       </c>
       <c r="R41" t="n">
-        <v>1873.168616506358</v>
+        <v>1863.470600074558</v>
       </c>
       <c r="S41" t="n">
         <v>1873.168616506358</v>
@@ -7448,13 +7448,13 @@
         <v>1701.036314887938</v>
       </c>
       <c r="W41" t="n">
-        <v>1560.409856621195</v>
+        <v>1560.409856621194</v>
       </c>
       <c r="X41" t="n">
         <v>1399.086295363486</v>
       </c>
       <c r="Y41" t="n">
-        <v>1221.089160391046</v>
+        <v>1221.089160391045</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>783.8843178251102</v>
+        <v>520.0882662779609</v>
       </c>
       <c r="C42" t="n">
-        <v>609.4312885439832</v>
+        <v>345.6352369968339</v>
       </c>
       <c r="D42" t="n">
-        <v>537.7075554810262</v>
+        <v>196.7008273355827</v>
       </c>
       <c r="E42" t="n">
-        <v>378.4701004755708</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="F42" t="n">
-        <v>231.9355425024558</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="G42" t="n">
-        <v>231.9355425024558</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="H42" t="n">
-        <v>120.5810210393212</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="I42" t="n">
         <v>37.46337233012716</v>
       </c>
       <c r="J42" t="n">
-        <v>56.03996289354845</v>
+        <v>56.03996289354843</v>
       </c>
       <c r="K42" t="n">
         <v>214.4111581170573</v>
       </c>
       <c r="L42" t="n">
-        <v>488.7651706012786</v>
+        <v>488.7651706012785</v>
       </c>
       <c r="M42" t="n">
-        <v>860.9025843679043</v>
+        <v>860.9025843679045</v>
       </c>
       <c r="N42" t="n">
         <v>1258.596381534956</v>
       </c>
       <c r="O42" t="n">
-        <v>1555.992831901944</v>
+        <v>1555.992831901945</v>
       </c>
       <c r="P42" t="n">
-        <v>1777.676634578255</v>
+        <v>1777.676634578256</v>
       </c>
       <c r="Q42" t="n">
         <v>1873.168616506358</v>
@@ -7515,25 +7515,25 @@
         <v>1873.168616506358</v>
       </c>
       <c r="S42" t="n">
-        <v>1873.168616506358</v>
+        <v>1821.51476196258</v>
       </c>
       <c r="T42" t="n">
-        <v>1873.168616506358</v>
+        <v>1821.51476196258</v>
       </c>
       <c r="U42" t="n">
-        <v>1857.100918775609</v>
+        <v>1593.30486722846</v>
       </c>
       <c r="V42" t="n">
-        <v>1621.948810543867</v>
+        <v>1358.152758996717</v>
       </c>
       <c r="W42" t="n">
-        <v>1367.711453815665</v>
+        <v>1103.915402268516</v>
       </c>
       <c r="X42" t="n">
-        <v>1159.859953610132</v>
+        <v>896.0639020629828</v>
       </c>
       <c r="Y42" t="n">
-        <v>952.0996548451783</v>
+        <v>688.303603298029</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="C43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="D43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="E43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="F43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="G43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="H43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="I43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="J43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="K43" t="n">
         <v>37.46337233012716</v>
@@ -7594,25 +7594,25 @@
         <v>292.8380174910429</v>
       </c>
       <c r="S43" t="n">
-        <v>281.7485259691775</v>
+        <v>281.7485259691776</v>
       </c>
       <c r="T43" t="n">
-        <v>261.014190696343</v>
+        <v>264.3898727765718</v>
       </c>
       <c r="U43" t="n">
-        <v>183.9547859134578</v>
+        <v>187.3304679936867</v>
       </c>
       <c r="V43" t="n">
-        <v>141.4124947109423</v>
+        <v>144.7881767911712</v>
       </c>
       <c r="W43" t="n">
-        <v>64.13752167735304</v>
+        <v>61.96110836493183</v>
       </c>
       <c r="X43" t="n">
-        <v>48.29016778270705</v>
+        <v>46.11375447028588</v>
       </c>
       <c r="Y43" t="n">
-        <v>39.6397856425483</v>
+        <v>37.46337233012716</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1046.631517330296</v>
       </c>
       <c r="C44" t="n">
-        <v>889.8111973932555</v>
+        <v>889.8111973932562</v>
       </c>
       <c r="D44" t="n">
-        <v>743.6876957898766</v>
+        <v>743.6876957898771</v>
       </c>
       <c r="E44" t="n">
-        <v>570.0416401950037</v>
+        <v>570.0416401950042</v>
       </c>
       <c r="F44" t="n">
-        <v>371.1979324087674</v>
+        <v>371.1979324087681</v>
       </c>
       <c r="G44" t="n">
         <v>164.2322825228623</v>
@@ -7643,31 +7643,31 @@
         <v>37.46337233012716</v>
       </c>
       <c r="I44" t="n">
-        <v>51.74408172857494</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="J44" t="n">
-        <v>280.2659105616042</v>
+        <v>58.06463388015217</v>
       </c>
       <c r="K44" t="n">
-        <v>431.8866655466321</v>
+        <v>209.6853888651801</v>
       </c>
       <c r="L44" t="n">
-        <v>672.2622468720563</v>
+        <v>450.0609701906043</v>
       </c>
       <c r="M44" t="n">
-        <v>956.3329419856216</v>
+        <v>734.1316653041696</v>
       </c>
       <c r="N44" t="n">
-        <v>1230.368200387079</v>
+        <v>1182.440536627399</v>
       </c>
       <c r="O44" t="n">
-        <v>1443.944286339872</v>
+        <v>1396.016622580192</v>
       </c>
       <c r="P44" t="n">
-        <v>1624.177308133937</v>
+        <v>1748.545055058986</v>
       </c>
       <c r="Q44" t="n">
-        <v>1863.470600074558</v>
+        <v>1779.917779716602</v>
       </c>
       <c r="R44" t="n">
         <v>1863.470600074558</v>
@@ -7685,13 +7685,13 @@
         <v>1701.036314887938</v>
       </c>
       <c r="W44" t="n">
-        <v>1560.409856621195</v>
+        <v>1560.409856621196</v>
       </c>
       <c r="X44" t="n">
         <v>1399.086295363487</v>
       </c>
       <c r="Y44" t="n">
-        <v>1221.089160391046</v>
+        <v>1221.089160391047</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>538.6116581073913</v>
+        <v>783.8843178251107</v>
       </c>
       <c r="C45" t="n">
-        <v>538.6116581073913</v>
+        <v>609.4312885439837</v>
       </c>
       <c r="D45" t="n">
-        <v>481.7576130778182</v>
+        <v>460.4968788827324</v>
       </c>
       <c r="E45" t="n">
-        <v>322.5201580723627</v>
+        <v>301.2594238772769</v>
       </c>
       <c r="F45" t="n">
-        <v>175.9856000992477</v>
+        <v>154.7248659041619</v>
       </c>
       <c r="G45" t="n">
         <v>37.46337233012716</v>
@@ -7722,28 +7722,28 @@
         <v>37.46337233012716</v>
       </c>
       <c r="I45" t="n">
-        <v>37.46337233012692</v>
+        <v>37.46337233012716</v>
       </c>
       <c r="J45" t="n">
-        <v>56.03996289354819</v>
+        <v>56.03996289354859</v>
       </c>
       <c r="K45" t="n">
-        <v>214.411158117057</v>
+        <v>214.4111581170575</v>
       </c>
       <c r="L45" t="n">
-        <v>488.7651706012783</v>
+        <v>488.7651706012787</v>
       </c>
       <c r="M45" t="n">
-        <v>860.9025843679043</v>
+        <v>860.9025843679045</v>
       </c>
       <c r="N45" t="n">
         <v>1258.596381534956</v>
       </c>
       <c r="O45" t="n">
-        <v>1555.992831901944</v>
+        <v>1555.992831901945</v>
       </c>
       <c r="P45" t="n">
-        <v>1777.676634578255</v>
+        <v>1777.676634578256</v>
       </c>
       <c r="Q45" t="n">
         <v>1873.168616506358</v>
@@ -7755,22 +7755,22 @@
         <v>1873.168616506358</v>
       </c>
       <c r="T45" t="n">
-        <v>1671.822816771942</v>
+        <v>1873.168616506358</v>
       </c>
       <c r="U45" t="n">
-        <v>1443.612922037822</v>
+        <v>1857.10091877561</v>
       </c>
       <c r="V45" t="n">
-        <v>1208.46081380608</v>
+        <v>1621.948810543867</v>
       </c>
       <c r="W45" t="n">
-        <v>954.223457077878</v>
+        <v>1367.711453815665</v>
       </c>
       <c r="X45" t="n">
-        <v>746.3719568723452</v>
+        <v>1159.859953610133</v>
       </c>
       <c r="Y45" t="n">
-        <v>538.6116581073913</v>
+        <v>952.0996548451787</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="C46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="D46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="E46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="F46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="G46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="H46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="I46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="J46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
       <c r="K46" t="n">
         <v>37.46337233012716</v>
       </c>
       <c r="L46" t="n">
-        <v>90.2601698946354</v>
+        <v>90.26016989463541</v>
       </c>
       <c r="M46" t="n">
         <v>156.3161133636596</v>
@@ -7831,25 +7831,25 @@
         <v>292.8380174910429</v>
       </c>
       <c r="S46" t="n">
-        <v>276.1964305765276</v>
+        <v>278.3728438889486</v>
       </c>
       <c r="T46" t="n">
-        <v>258.8377773839218</v>
+        <v>261.0141906963428</v>
       </c>
       <c r="U46" t="n">
-        <v>181.7783726010367</v>
+        <v>183.9547859134577</v>
       </c>
       <c r="V46" t="n">
-        <v>139.2360813985212</v>
+        <v>141.4124947109422</v>
       </c>
       <c r="W46" t="n">
-        <v>61.96110836493189</v>
+        <v>64.13752167735299</v>
       </c>
       <c r="X46" t="n">
-        <v>46.1137544702859</v>
+        <v>48.29016778270703</v>
       </c>
       <c r="Y46" t="n">
-        <v>37.46337233012716</v>
+        <v>39.63978564254831</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>262.4389053482807</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,7 +8061,7 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
@@ -8070,13 +8070,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P3" t="n">
-        <v>176.3234617176304</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>272.6952875305729</v>
@@ -8301,16 +8301,16 @@
         <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>185.4193833999402</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,7 +8547,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>104.494332746408</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>436.813846203285</v>
+        <v>436.8138462032849</v>
       </c>
       <c r="N12" t="n">
-        <v>424.6366281095402</v>
+        <v>424.6366281095401</v>
       </c>
       <c r="O12" t="n">
-        <v>157.1826954099606</v>
+        <v>221.1348241501646</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>94.53973563356243</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>112.9782902264179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>242.3753724905716</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>107.3268024480641</v>
       </c>
       <c r="K18" t="n">
-        <v>112.9782902264179</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>238.1176314096458</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>107.3268024480641</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>228.1990705208889</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>314.2181169638392</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6207403337255</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>107.3268024480641</v>
       </c>
       <c r="K24" t="n">
-        <v>113.4485727530549</v>
+        <v>228.6693530475233</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6207403337255</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404079</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>254.7049521419186</v>
+        <v>226.9941428843223</v>
       </c>
       <c r="C11" t="n">
-        <v>237.2440022494456</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>226.654152099121</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>253.9014805506999</v>
       </c>
       <c r="F11" t="n">
-        <v>278.8471562201495</v>
+        <v>278.8471562201496</v>
       </c>
       <c r="G11" t="n">
-        <v>286.8878788988218</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.19590931803819</v>
+        <v>72.19590931803828</v>
       </c>
       <c r="T11" t="n">
-        <v>93.37738033029558</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>123.2858858586946</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.2120791958512</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>241.7022111569072</v>
       </c>
       <c r="Y11" t="n">
-        <v>226.4364830613624</v>
+        <v>258.2090491344917</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.415845301584341e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,16 +23492,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254.7049521419186</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>237.2440022494456</v>
+        <v>28.48225045386295</v>
       </c>
       <c r="D14" t="n">
-        <v>226.654152099121</v>
+        <v>226.6541520991211</v>
       </c>
       <c r="E14" t="n">
-        <v>253.9014805506998</v>
+        <v>253.9014805506999</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>207.4931066025836</v>
       </c>
       <c r="I14" t="n">
-        <v>67.56692652344459</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>93.37738033029569</v>
       </c>
       <c r="U14" t="n">
-        <v>123.2858858586944</v>
+        <v>123.2858858586945</v>
       </c>
       <c r="V14" t="n">
-        <v>190.7723046163594</v>
+        <v>199.723368948573</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>221.2120791958511</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4609239043570312</v>
+        <v>0.4609239043544607</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.4609239043541038</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.4609239043570881</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1039642.94941914</v>
+        <v>1039642.949419139</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1237454.299497246</v>
+        <v>1237454.299497247</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1237454.299497246</v>
+        <v>1237454.299497247</v>
       </c>
     </row>
     <row r="9">
@@ -26317,25 +26317,25 @@
         <v>225786.4867126779</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
         <v>189091.2308682317</v>
       </c>
       <c r="F2" t="n">
-        <v>196144.5874912493</v>
+        <v>196144.5874912494</v>
       </c>
       <c r="G2" t="n">
         <v>225776.3970884116</v>
       </c>
       <c r="H2" t="n">
-        <v>225776.3970884116</v>
+        <v>225776.3970884117</v>
       </c>
       <c r="I2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="J2" t="n">
-        <v>225786.4867126777</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="K2" t="n">
         <v>225786.486712678</v>
@@ -26372,22 +26372,22 @@
         <v>61157.49184790745</v>
       </c>
       <c r="E3" t="n">
-        <v>211204.225180653</v>
+        <v>211204.2251806528</v>
       </c>
       <c r="F3" t="n">
-        <v>23789.91314124283</v>
+        <v>23789.9131412431</v>
       </c>
       <c r="G3" t="n">
-        <v>74701.90426423648</v>
+        <v>74701.90426423655</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>31.58352545107013</v>
+        <v>31.58352545088874</v>
       </c>
       <c r="J3" t="n">
-        <v>124588.1844803887</v>
+        <v>124588.1844803886</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>116582.6625666098</v>
       </c>
       <c r="M3" t="n">
-        <v>26360.87160718481</v>
+        <v>26360.87160718484</v>
       </c>
       <c r="N3" t="n">
-        <v>20335.99762655114</v>
+        <v>20335.99762655127</v>
       </c>
       <c r="O3" t="n">
-        <v>50227.22357218888</v>
+        <v>50227.22357218879</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>193409.7557430323</v>
+        <v>193409.7557430321</v>
       </c>
       <c r="F4" t="n">
-        <v>201654.125238281</v>
+        <v>201654.1252382809</v>
       </c>
       <c r="G4" t="n">
         <v>262887.176635462</v>
@@ -26451,13 +26451,13 @@
         <v>259961.4216489612</v>
       </c>
       <c r="N4" t="n">
-        <v>259961.4216489611</v>
+        <v>259961.4216489612</v>
       </c>
       <c r="O4" t="n">
         <v>259961.4216489612</v>
       </c>
       <c r="P4" t="n">
-        <v>259961.4216489611</v>
+        <v>259961.4216489612</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>33954.18834946695</v>
+        <v>33954.18834946693</v>
       </c>
       <c r="F5" t="n">
-        <v>39002.34006689421</v>
+        <v>39002.34006689425</v>
       </c>
       <c r="G5" t="n">
-        <v>46852.48305388184</v>
+        <v>46852.48305388188</v>
       </c>
       <c r="H5" t="n">
-        <v>46852.48305388184</v>
+        <v>46852.48305388188</v>
       </c>
       <c r="I5" t="n">
         <v>46859.70429006637</v>
@@ -26503,7 +26503,7 @@
         <v>48221.4134157369</v>
       </c>
       <c r="N5" t="n">
-        <v>48221.4134157369</v>
+        <v>48221.41341573688</v>
       </c>
       <c r="O5" t="n">
         <v>48221.4134157369</v>
@@ -26525,43 +26525,43 @@
         <v>-160680.6282891526</v>
       </c>
       <c r="D6" t="n">
-        <v>-187880.0697460698</v>
+        <v>-187880.0697460699</v>
       </c>
       <c r="E6" t="n">
-        <v>-249476.9384049205</v>
+        <v>-249810.5316398697</v>
       </c>
       <c r="F6" t="n">
-        <v>-68301.79095516878</v>
+        <v>-68571.26276627279</v>
       </c>
       <c r="G6" t="n">
-        <v>-158665.1668651687</v>
+        <v>-158665.2585890257</v>
       </c>
       <c r="H6" t="n">
-        <v>-83963.2626009322</v>
+        <v>-83963.35432478915</v>
       </c>
       <c r="I6" t="n">
-        <v>-84003.7710723077</v>
+        <v>-84003.77107230744</v>
       </c>
       <c r="J6" t="n">
-        <v>-215689.8860075426</v>
+        <v>-215689.8860075422</v>
       </c>
       <c r="K6" t="n">
-        <v>-91101.70152715367</v>
+        <v>-91101.70152715375</v>
       </c>
       <c r="L6" t="n">
         <v>-199181.4902213924</v>
       </c>
       <c r="M6" t="n">
-        <v>-108757.2199592048</v>
+        <v>-108757.2199592049</v>
       </c>
       <c r="N6" t="n">
-        <v>-102732.3459785711</v>
+        <v>-102732.3459785714</v>
       </c>
       <c r="O6" t="n">
         <v>-132623.5719242089</v>
       </c>
       <c r="P6" t="n">
-        <v>-82396.34835202</v>
+        <v>-82396.34835202008</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="F2" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="G2" t="n">
         <v>221.4062698518576</v>
@@ -26713,19 +26713,19 @@
         <v>156.1614097955317</v>
       </c>
       <c r="L2" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="M2" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="N2" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="O2" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="P2" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="3">
@@ -26796,16 +26796,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>347.0051599953316</v>
+        <v>347.0051599953315</v>
       </c>
       <c r="F4" t="n">
-        <v>430.0339711372275</v>
+        <v>430.0339711372281</v>
       </c>
       <c r="G4" t="n">
-        <v>430.0339711372275</v>
+        <v>430.0339711372281</v>
       </c>
       <c r="H4" t="n">
-        <v>430.0339711372275</v>
+        <v>430.0339711372281</v>
       </c>
       <c r="I4" t="n">
         <v>430.1527414692098</v>
@@ -26814,22 +26814,22 @@
         <v>670.2272044731729</v>
       </c>
       <c r="K4" t="n">
-        <v>670.2272044731729</v>
+        <v>670.2272044731731</v>
       </c>
       <c r="L4" t="n">
-        <v>473.3450879747425</v>
+        <v>473.3450879747426</v>
       </c>
       <c r="M4" t="n">
         <v>468.2921541265895</v>
       </c>
       <c r="N4" t="n">
+        <v>468.2921541265893</v>
+      </c>
+      <c r="O4" t="n">
         <v>468.2921541265895</v>
       </c>
-      <c r="O4" t="n">
-        <v>468.2921541265894</v>
-      </c>
       <c r="P4" t="n">
-        <v>468.2921541265894</v>
+        <v>468.2921541265895</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>93.37738033029561</v>
+        <v>93.37738033029569</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62.78402946523607</v>
+        <v>62.78402946523599</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>145.7283282082622</v>
       </c>
       <c r="M2" t="n">
-        <v>1.508417359839314</v>
+        <v>1.508417359839427</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.7840294652361</v>
+        <v>62.78402946523599</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>196.8821164984305</v>
       </c>
       <c r="E4" t="n">
-        <v>105.9908711176725</v>
+        <v>105.9908711176724</v>
       </c>
       <c r="F4" t="n">
-        <v>83.02881114189591</v>
+        <v>83.02881114189665</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1187703319823186</v>
+        <v>0.1187703319816364</v>
       </c>
       <c r="J4" t="n">
         <v>284.2066353831917</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>100.9379372695196</v>
+        <v>100.9379372695194</v>
       </c>
       <c r="N4" t="n">
-        <v>83.02881114189591</v>
+        <v>83.02881114189643</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>93.37738033029561</v>
+        <v>93.37738033029569</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>62.78402946523607</v>
+        <v>62.78402946523599</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>196.8821164984305</v>
       </c>
       <c r="M4" t="n">
-        <v>105.9908711176725</v>
+        <v>105.9908711176724</v>
       </c>
       <c r="N4" t="n">
-        <v>83.02881114189591</v>
+        <v>83.02881114189665</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,31 +27376,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>348.5800575962295</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>310.5508692414544</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>362.7438733624829</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1705651359065</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>312.5524740387551</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>128.5763266090871</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27470,13 +27470,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>68.10327185726787</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>162.0397025894549</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>167.5576696719377</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>135.5187846613368</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>232.2059530579065</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>376.4311200835105</v>
       </c>
       <c r="H5" t="n">
-        <v>307.479230425854</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27710,13 +27710,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,10 +27746,10 @@
         <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>187.8163559756081</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>104.4833006389838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>209.9364612320236</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>205.7779651231156</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,7 +27853,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>197.1062779535693</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>125.4670514759408</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>220.74313402034</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>52.95740108485728</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>178.3269633122123</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>174.2811697535276</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="C11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="D11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="E11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="F11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="G11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="H11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="I11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>125.6239867929785</v>
       </c>
       <c r="S11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="T11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="U11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="V11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="W11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="X11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="Y11" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>128.028889521562</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>128.028889521562</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="E12" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="G12" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="H12" t="n">
         <v>110.2409762485032</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>82.28647222210212</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.30157979524209</v>
+        <v>87.33599544327318</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>44.70800165143024</v>
       </c>
       <c r="V12" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="W12" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="X12" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.028889521562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="C13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="D13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="E13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="F13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="G13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="H13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="I13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="J13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="K13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="L13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="M13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="N13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="O13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="P13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="R13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="S13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="T13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="U13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="V13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="W13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="X13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215618</v>
       </c>
     </row>
     <row r="14">
@@ -28324,31 +28324,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="C14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="D14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="E14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="F14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="G14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="H14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="I14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>70.29786335580259</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -28360,40 +28360,40 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>70.29786335579985</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="P14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="S14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="T14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="U14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="V14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="W14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="X14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="Y14" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
     </row>
     <row r="15">
@@ -28403,22 +28403,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="C15" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>43.04612936412472</v>
       </c>
       <c r="E15" t="n">
-        <v>128.028889521562</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>128.028889521562</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>87.33599544327318</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>128.028889521562</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="V15" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="X15" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.353235285837854</v>
+        <v>128.0288895215619</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="C16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="D16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="E16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="F16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="G16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="H16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="I16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="J16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="K16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="L16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="M16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="N16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="O16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="P16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="R16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="S16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="T16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="U16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="V16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="W16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="X16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
       <c r="Y16" t="n">
-        <v>128.028889521562</v>
+        <v>128.0288895215619</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>221.4062698518576</v>
       </c>
       <c r="I17" t="n">
-        <v>195.5958160450065</v>
+        <v>221.4062698518576</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28594,7 +28594,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>143.0938750629191</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,10 +28603,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>68.70291599345151</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>185.9863372495227</v>
       </c>
       <c r="R17" t="n">
         <v>221.4062698518576</v>
@@ -28643,7 +28643,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -28658,10 +28658,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>110.2409762485032</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>82.28647222210212</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,10 +28688,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>87.33599544327318</v>
       </c>
       <c r="S18" t="n">
-        <v>167.8473073757945</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -28700,16 +28700,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>25.47264218307384</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>221.4062698518576</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>146.4583611939499</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -28770,13 +28770,13 @@
         <v>169.5087269225518</v>
       </c>
       <c r="S19" t="n">
-        <v>139.0328481832573</v>
+        <v>220.9993716399844</v>
       </c>
       <c r="T19" t="n">
         <v>221.4062698518576</v>
       </c>
       <c r="U19" t="n">
-        <v>221.4062698518576</v>
+        <v>139.4397463951306</v>
       </c>
       <c r="V19" t="n">
         <v>221.4062698518576</v>
@@ -28822,7 +28822,7 @@
         <v>221.4062698518576</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>185.9863372495226</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -28831,10 +28831,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>32.75565742689628</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>153.2306798226235</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>140.3950041221303</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -28889,7 +28889,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.1370054914293</v>
@@ -28928,25 +28928,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>167.8473073757945</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>199.3323417370715</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>108.3339785315753</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>221.4062698518576</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28983,7 +28983,7 @@
         <v>81.11871601162593</v>
       </c>
       <c r="K22" t="n">
-        <v>2.154649179296936</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>71.66456159146723</v>
       </c>
       <c r="R22" t="n">
-        <v>169.5087269225518</v>
+        <v>89.69685264512175</v>
       </c>
       <c r="S22" t="n">
         <v>220.9993716399844</v>
@@ -29022,7 +29022,7 @@
         <v>221.4062698518576</v>
       </c>
       <c r="X22" t="n">
-        <v>139.4397463951306</v>
+        <v>221.4062698518576</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -29056,13 +29056,13 @@
         <v>221.4062698518576</v>
       </c>
       <c r="I23" t="n">
-        <v>195.5958160450065</v>
+        <v>221.4062698518576</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>186.456619776157</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,16 +29077,16 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>107.824557802287</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>221.4062698518576</v>
       </c>
-      <c r="R23" t="n">
-        <v>125.6239867929785</v>
-      </c>
       <c r="S23" t="n">
-        <v>200.2247988396002</v>
+        <v>221.4062698518576</v>
       </c>
       <c r="T23" t="n">
         <v>221.4062698518576</v>
@@ -29114,10 +29114,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>119.7709397803543</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.1370054914293</v>
@@ -29135,7 +29135,7 @@
         <v>110.2409762485032</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>82.28647222210212</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29165,13 +29165,13 @@
         <v>87.33599544327318</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>167.8473073757945</v>
       </c>
       <c r="T24" t="n">
         <v>199.3323417370715</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>96.87411664241867</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29180,7 +29180,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>81.11871601162593</v>
       </c>
       <c r="K25" t="n">
-        <v>2.154649179296936</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29244,13 +29244,13 @@
         <v>169.5087269225518</v>
       </c>
       <c r="S25" t="n">
-        <v>220.9993716399844</v>
+        <v>141.1874973625543</v>
       </c>
       <c r="T25" t="n">
         <v>221.4062698518576</v>
       </c>
       <c r="U25" t="n">
-        <v>139.4397463951306</v>
+        <v>221.4062698518576</v>
       </c>
       <c r="V25" t="n">
         <v>221.4062698518576</v>
@@ -29357,22 +29357,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>94.72232997645716</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.1370054914293</v>
+        <v>129.7643216127437</v>
       </c>
       <c r="H27" t="n">
         <v>110.2409762485032</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>82.28647222210212</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29405,13 +29405,13 @@
         <v>156.1614097955317</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>156.1614097955317</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>156.1614097955317</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>156.1614097955317</v>
       </c>
       <c r="D28" t="n">
-        <v>156.1614097955317</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>156.1614097955317</v>
@@ -29463,7 +29463,7 @@
         <v>156.1614097955317</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>33.05761346788735</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>25.51167669056909</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>71.66456159146723</v>
@@ -29597,16 +29597,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.1614097955317</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>83.84388806571533</v>
+        <v>137.1370054914293</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>110.2409762485032</v>
       </c>
       <c r="I30" t="n">
         <v>82.28647222210212</v>
@@ -29639,16 +29639,16 @@
         <v>87.33599544327318</v>
       </c>
       <c r="S30" t="n">
-        <v>156.1614097955317</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>156.1614097955317</v>
       </c>
       <c r="U30" t="n">
-        <v>156.1614097955317</v>
+        <v>3.719513523462439</v>
       </c>
       <c r="V30" t="n">
-        <v>156.1614097955317</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29694,22 +29694,22 @@
         <v>81.11871601162593</v>
       </c>
       <c r="K31" t="n">
+        <v>2.154649179296936</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>156.1614097955317</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>156.1614097955317</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>49.98876774170481</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>47.83411856240815</v>
       </c>
       <c r="Q31" t="n">
         <v>156.1614097955317</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="C32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="D32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="E32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="F32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="G32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="H32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="I32" t="n">
-        <v>195.5958160450065</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="J32" t="n">
-        <v>208.5123576734983</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="P32" t="n">
-        <v>74.94279418202527</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="Q32" t="n">
-        <v>208.5123576734983</v>
+        <v>62.02625255353419</v>
       </c>
       <c r="R32" t="n">
         <v>125.6239867929785</v>
       </c>
       <c r="S32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="T32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="U32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="V32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="W32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="X32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="Y32" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
     </row>
     <row r="33">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -29834,10 +29834,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.1370054914293</v>
@@ -29873,13 +29873,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>87.33599544327318</v>
       </c>
       <c r="S33" t="n">
-        <v>167.8473073757945</v>
+        <v>158.3972526591247</v>
       </c>
       <c r="T33" t="n">
-        <v>199.3323417370715</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>14.73470818844962</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>71.66456159146723</v>
       </c>
       <c r="R34" t="n">
-        <v>174.6738601540097</v>
+        <v>174.6738601540101</v>
       </c>
       <c r="S34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="T34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="U34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="V34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="W34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="X34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.5123576734983</v>
+        <v>208.5123576734982</v>
       </c>
     </row>
     <row r="35">
@@ -29983,37 +29983,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="C35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="D35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="E35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="F35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="G35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="H35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="I35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="J35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>45.78098285866162</v>
       </c>
       <c r="L35" t="n">
-        <v>161.6089934579031</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>210.0207750333376</v>
+        <v>125.6239867929785</v>
       </c>
       <c r="S35" t="n">
-        <v>210.0207750333376</v>
+        <v>200.2247988396002</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y35" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="36">
@@ -30077,10 +30077,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.1370054914293</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>110.2409762485032</v>
+        <v>3.554800290402795</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -30110,19 +30110,19 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>87.33599544327318</v>
       </c>
       <c r="S36" t="n">
-        <v>15.69820062557099</v>
+        <v>167.8473073757945</v>
       </c>
       <c r="T36" t="n">
         <v>199.3323417370715</v>
       </c>
       <c r="U36" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30168,7 +30168,7 @@
         <v>81.11871601162593</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2.154649179296936</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>169.5087269225518</v>
       </c>
       <c r="S37" t="n">
-        <v>210.0207750333376</v>
+        <v>204.5242005946141</v>
       </c>
       <c r="T37" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U37" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V37" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W37" t="n">
-        <v>206.6788497739113</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X37" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y37" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="C38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="D38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="E38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="F38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="G38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="H38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="I38" t="n">
-        <v>210.0207750333376</v>
+        <v>195.5958160450065</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30250,46 +30250,46 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>210.0207750333376</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>161.608993457903</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>176.0339524462327</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="R38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="S38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y38" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="39">
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.46756407621656</v>
+        <v>87.33599544327318</v>
       </c>
       <c r="S39" t="n">
         <v>167.8473073757945</v>
@@ -30356,10 +30356,10 @@
         <v>199.3323417370715</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>76.43856983231197</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30393,7 +30393,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.817846910014</v>
+        <v>164.4759216505873</v>
       </c>
       <c r="H40" t="n">
         <v>160.6878676476304</v>
@@ -30429,25 +30429,25 @@
         <v>169.5087269225518</v>
       </c>
       <c r="S40" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="T40" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U40" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V40" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W40" t="n">
-        <v>206.6788497739113</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X40" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y40" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="41">
@@ -30457,43 +30457,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="C41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="D41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="E41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="F41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="G41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="H41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="I41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="J41" t="n">
-        <v>210.0207750333376</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>171.4049696516401</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>181.3520580522811</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>190.277710438959</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="S41" t="n">
-        <v>200.2247988396002</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y41" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="42">
@@ -30542,22 +30542,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>76.43856983231136</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.1370054914293</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>110.2409762485032</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>82.28647222210212</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,13 +30587,13 @@
         <v>87.33599544327318</v>
       </c>
       <c r="S42" t="n">
-        <v>167.8473073757945</v>
+        <v>116.7099913774541</v>
       </c>
       <c r="T42" t="n">
         <v>199.3323417370715</v>
       </c>
       <c r="U42" t="n">
-        <v>210.0207750333376</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30642,7 +30642,7 @@
         <v>81.11871601162593</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2.154649179296936</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>169.5087269225518</v>
       </c>
       <c r="S43" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="T43" t="n">
-        <v>206.6788497739111</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U43" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V43" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W43" t="n">
-        <v>210.0207750333376</v>
+        <v>204.5242005946141</v>
       </c>
       <c r="X43" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y43" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="44">
@@ -30694,31 +30694,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="C44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="D44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="E44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="F44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="G44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="H44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="I44" t="n">
-        <v>210.0207750333376</v>
+        <v>195.5958160450065</v>
       </c>
       <c r="J44" t="n">
-        <v>210.0207750333376</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -30730,40 +30730,40 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>176.0339524462339</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>35.98500666492401</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Q44" t="n">
-        <v>210.0207750333376</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>125.6239867929785</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="S44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y44" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
     <row r="45">
@@ -30773,13 +30773,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>91.15956098536137</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -30788,7 +30788,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>21.04812685313495</v>
       </c>
       <c r="H45" t="n">
         <v>110.2409762485032</v>
@@ -30827,10 +30827,10 @@
         <v>167.8473073757945</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>199.3323417370715</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30879,7 +30879,7 @@
         <v>81.11871601162593</v>
       </c>
       <c r="K46" t="n">
-        <v>2.154649179296936</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>169.5087269225518</v>
       </c>
       <c r="S46" t="n">
-        <v>204.5242005946142</v>
+        <v>206.678849773911</v>
       </c>
       <c r="T46" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="U46" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="V46" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="W46" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="X46" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
       <c r="Y46" t="n">
-        <v>210.0207750333376</v>
+        <v>210.0207750333377</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>42.34905430330019</v>
+      </c>
+      <c r="P3" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="P3" t="n">
-        <v>42.34905430330019</v>
-      </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>42.34905430330018</v>
@@ -35021,16 +35021,16 @@
         <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,10 +35255,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>43.28534947792188</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,7 +35267,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35489,22 +35489,22 @@
         <v>18.76423289234473</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>159.9709042661705</v>
       </c>
       <c r="L12" t="n">
         <v>277.125265135577</v>
       </c>
       <c r="M12" t="n">
-        <v>347.0051599953316</v>
+        <v>347.0051599953315</v>
       </c>
       <c r="N12" t="n">
-        <v>347.0051599953316</v>
+        <v>347.0051599953315</v>
       </c>
       <c r="O12" t="n">
-        <v>63.72083104938105</v>
+        <v>127.6729597895851</v>
       </c>
       <c r="P12" t="n">
-        <v>223.9230330063747</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>96.45654740212365</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>46.91017350993605</v>
+        <v>46.91017350993591</v>
       </c>
       <c r="K13" t="n">
-        <v>125.874240342265</v>
+        <v>125.8742403422649</v>
       </c>
       <c r="L13" t="n">
-        <v>181.3589880715703</v>
+        <v>181.3589880715702</v>
       </c>
       <c r="M13" t="n">
-        <v>194.7520647427986</v>
+        <v>194.7520647427984</v>
       </c>
       <c r="N13" t="n">
-        <v>198.6550483068924</v>
+        <v>198.6550483068922</v>
       </c>
       <c r="O13" t="n">
-        <v>177.0855020575984</v>
+        <v>177.0855020575982</v>
       </c>
       <c r="P13" t="n">
-        <v>146.2470314601784</v>
+        <v>146.2470314601782</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.36432793009474</v>
+        <v>56.3643279300946</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>20.80935510103537</v>
+        <v>91.10721845683796</v>
       </c>
       <c r="K14" t="n">
         <v>153.1522777626545</v>
@@ -35656,19 +35656,19 @@
         <v>286.9400960743084</v>
       </c>
       <c r="N14" t="n">
-        <v>347.1011546704038</v>
+        <v>276.803291314604</v>
       </c>
       <c r="O14" t="n">
         <v>343.7623096758981</v>
       </c>
       <c r="P14" t="n">
-        <v>274.09744022438</v>
+        <v>274.0974402243799</v>
       </c>
       <c r="Q14" t="n">
         <v>31.68962086627929</v>
       </c>
       <c r="R14" t="n">
-        <v>2.404902728583419</v>
+        <v>2.404902728583334</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>18.76423289234473</v>
       </c>
       <c r="K15" t="n">
-        <v>8.483957480009819</v>
+        <v>159.9709042661705</v>
       </c>
       <c r="L15" t="n">
         <v>277.125265135577</v>
@@ -35738,7 +35738,7 @@
         <v>401.7109062293449</v>
       </c>
       <c r="O15" t="n">
-        <v>300.40045491615</v>
+        <v>148.9135081299921</v>
       </c>
       <c r="P15" t="n">
         <v>223.9230330063747</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>46.91017350993602</v>
+        <v>46.91017350993594</v>
       </c>
       <c r="K16" t="n">
-        <v>125.874240342265</v>
+        <v>125.8742403422649</v>
       </c>
       <c r="L16" t="n">
-        <v>181.3589880715703</v>
+        <v>181.3589880715702</v>
       </c>
       <c r="M16" t="n">
-        <v>194.7520647427986</v>
+        <v>194.7520647427985</v>
       </c>
       <c r="N16" t="n">
-        <v>198.6550483068924</v>
+        <v>198.6550483068922</v>
       </c>
       <c r="O16" t="n">
         <v>177.0855020575983</v>
       </c>
       <c r="P16" t="n">
-        <v>146.2470314601784</v>
+        <v>146.2470314601783</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.36432793009472</v>
+        <v>56.36432793009462</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>25.81045380685102</v>
       </c>
       <c r="J17" t="n">
         <v>20.80935510103537</v>
@@ -35890,7 +35890,7 @@
         <v>242.8036175004285</v>
       </c>
       <c r="M17" t="n">
-        <v>430.0339711372275</v>
+        <v>286.9400960743084</v>
       </c>
       <c r="N17" t="n">
         <v>276.803291314604</v>
@@ -35899,10 +35899,10 @@
         <v>215.7334201543362</v>
       </c>
       <c r="P17" t="n">
-        <v>214.7714666962695</v>
+        <v>146.068550702818</v>
       </c>
       <c r="Q17" t="n">
-        <v>31.68962086627929</v>
+        <v>217.675958115802</v>
       </c>
       <c r="R17" t="n">
         <v>95.78228305887903</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.76423289234473</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>8.483957480009819</v>
+        <v>159.9709042661705</v>
       </c>
       <c r="L18" t="n">
-        <v>277.125265135577</v>
+        <v>144.4025512417637</v>
       </c>
       <c r="M18" t="n">
         <v>375.8963775420465</v>
@@ -36118,7 +36118,7 @@
         <v>25.81045380685102</v>
       </c>
       <c r="J20" t="n">
-        <v>20.80935510103537</v>
+        <v>206.795692350558</v>
       </c>
       <c r="K20" t="n">
         <v>153.1522777626545</v>
@@ -36127,10 +36127,10 @@
         <v>242.8036175004285</v>
       </c>
       <c r="M20" t="n">
-        <v>319.6957535012046</v>
+        <v>286.9400960743084</v>
       </c>
       <c r="N20" t="n">
-        <v>430.0339711372275</v>
+        <v>276.803291314604</v>
       </c>
       <c r="O20" t="n">
         <v>215.7334201543362</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>18.76423289234473</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>159.9709042661705</v>
+        <v>123.7047377744809</v>
       </c>
       <c r="L21" t="n">
         <v>277.125265135577</v>
       </c>
       <c r="M21" t="n">
-        <v>224.4094307558858</v>
+        <v>375.8963775420465</v>
       </c>
       <c r="N21" t="n">
         <v>401.7109062293449</v>
@@ -36218,7 +36218,7 @@
         <v>223.9230330063747</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.45654740212365</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,13 +36352,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>25.81045380685102</v>
       </c>
       <c r="J23" t="n">
         <v>20.80935510103537</v>
       </c>
       <c r="K23" t="n">
-        <v>153.1522777626545</v>
+        <v>339.6088975388114</v>
       </c>
       <c r="L23" t="n">
         <v>242.8036175004285</v>
@@ -36373,16 +36373,16 @@
         <v>215.7334201543362</v>
       </c>
       <c r="P23" t="n">
-        <v>253.893108505105</v>
+        <v>146.068550702818</v>
       </c>
       <c r="Q23" t="n">
-        <v>253.0958907181368</v>
+        <v>31.68962086627929</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>95.78228305887903</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>21.1814710122574</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>18.76423289234473</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.95424000664689</v>
+        <v>124.1750203011153</v>
       </c>
       <c r="L24" t="n">
         <v>277.125265135577</v>
@@ -36455,7 +36455,7 @@
         <v>223.9230330063747</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.45654740212365</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.970764896567</v>
+        <v>176.9707648965671</v>
       </c>
       <c r="K26" t="n">
-        <v>309.3136875581861</v>
+        <v>309.3136875581862</v>
       </c>
       <c r="L26" t="n">
-        <v>398.9650272959601</v>
+        <v>398.9650272959602</v>
       </c>
       <c r="M26" t="n">
         <v>443.1015058698401</v>
       </c>
       <c r="N26" t="n">
-        <v>432.9647011101356</v>
+        <v>432.9647011101357</v>
       </c>
       <c r="O26" t="n">
-        <v>371.8948299498678</v>
+        <v>371.8948299498679</v>
       </c>
       <c r="P26" t="n">
         <v>302.2299604983497</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.8510306618109</v>
+        <v>187.851030661811</v>
       </c>
       <c r="R26" t="n">
-        <v>30.53742300255313</v>
+        <v>30.53742300255318</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36732,13 +36732,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>7.545936777319298</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>9.727447148962483</v>
+        <v>9.72744714896254</v>
       </c>
       <c r="F28" t="n">
-        <v>10.74036177260041</v>
+        <v>10.74036177260047</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36747,19 +36747,19 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>5.917499772413138</v>
+        <v>5.917499772413195</v>
       </c>
       <c r="J28" t="n">
-        <v>75.04269378390572</v>
+        <v>75.04269378390578</v>
       </c>
       <c r="K28" t="n">
-        <v>154.0067606162347</v>
+        <v>154.0067606162348</v>
       </c>
       <c r="L28" t="n">
         <v>209.49150834554</v>
       </c>
       <c r="M28" t="n">
-        <v>66.7231752212366</v>
+        <v>99.78078868912395</v>
       </c>
       <c r="N28" t="n">
         <v>70.62615878533039</v>
@@ -36768,7 +36768,7 @@
         <v>49.05661253603639</v>
       </c>
       <c r="P28" t="n">
-        <v>43.7298186291855</v>
+        <v>18.21814193861641</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>176.9707648965671</v>
       </c>
       <c r="K29" t="n">
-        <v>309.3136875581862</v>
+        <v>309.3136875581861</v>
       </c>
       <c r="L29" t="n">
-        <v>398.9650272959602</v>
+        <v>398.9650272959601</v>
       </c>
       <c r="M29" t="n">
         <v>443.1015058698401</v>
@@ -36853,7 +36853,7 @@
         <v>187.851030661811</v>
       </c>
       <c r="R29" t="n">
-        <v>30.53742300255318</v>
+        <v>30.53742300255315</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>154.0067606162348</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>209.49150834554</v>
+        <v>53.33009855000833</v>
       </c>
       <c r="M31" t="n">
-        <v>66.7231752212366</v>
+        <v>222.8845850167683</v>
       </c>
       <c r="N31" t="n">
-        <v>120.6149265270352</v>
+        <v>70.62615878533039</v>
       </c>
       <c r="O31" t="n">
-        <v>49.05661253603639</v>
+        <v>205.2180223315681</v>
       </c>
       <c r="P31" t="n">
-        <v>18.21814193861641</v>
+        <v>66.05226050102456</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.49684820406448</v>
+        <v>84.49684820406445</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,10 +37063,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>12.91654162849169</v>
       </c>
       <c r="J32" t="n">
-        <v>229.3217127745336</v>
+        <v>20.80935510103537</v>
       </c>
       <c r="K32" t="n">
         <v>153.1522777626545</v>
@@ -37081,19 +37081,19 @@
         <v>276.803291314604</v>
       </c>
       <c r="O32" t="n">
-        <v>215.7334201543362</v>
+        <v>424.2457778278344</v>
       </c>
       <c r="P32" t="n">
-        <v>221.0113448848433</v>
+        <v>354.5809083763162</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.2019785397776</v>
+        <v>93.71587341981348</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>8.287558833898123</v>
+        <v>8.287558833898066</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37248,7 +37248,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>5.165133231457903</v>
+        <v>5.165133231458305</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,16 +37300,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14.42495898833106</v>
+        <v>14.42495898833112</v>
       </c>
       <c r="J35" t="n">
         <v>230.830130134373</v>
       </c>
       <c r="K35" t="n">
-        <v>153.1522777626545</v>
+        <v>198.9332606213161</v>
       </c>
       <c r="L35" t="n">
-        <v>404.4126109583315</v>
+        <v>452.8243925337661</v>
       </c>
       <c r="M35" t="n">
         <v>286.9400960743084</v>
@@ -37327,10 +37327,10 @@
         <v>31.68962086627929</v>
       </c>
       <c r="R35" t="n">
-        <v>84.39678824035907</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.795976193737436</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>14.42495898833106</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>20.80935510103537</v>
@@ -37546,28 +37546,28 @@
         <v>153.1522777626545</v>
       </c>
       <c r="L38" t="n">
-        <v>452.8243925337661</v>
+        <v>242.8036175004285</v>
       </c>
       <c r="M38" t="n">
         <v>286.9400960743084</v>
       </c>
       <c r="N38" t="n">
-        <v>438.412284772507</v>
+        <v>276.803291314604</v>
       </c>
       <c r="O38" t="n">
         <v>215.7334201543362</v>
       </c>
       <c r="P38" t="n">
-        <v>146.068550702818</v>
+        <v>322.1025031490507</v>
       </c>
       <c r="Q38" t="n">
-        <v>31.68962086627929</v>
+        <v>241.7103958996169</v>
       </c>
       <c r="R38" t="n">
-        <v>84.39678824035907</v>
+        <v>84.39678824035913</v>
       </c>
       <c r="S38" t="n">
-        <v>9.795976193737436</v>
+        <v>9.795976193737493</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>18.76423289234473</v>
+        <v>18.76423289234381</v>
       </c>
       <c r="K39" t="n">
         <v>159.9709042661705</v>
@@ -37774,22 +37774,22 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>14.42495898833109</v>
+        <v>14.42495898833112</v>
       </c>
       <c r="J41" t="n">
-        <v>230.830130134373</v>
+        <v>20.80935510103537</v>
       </c>
       <c r="K41" t="n">
         <v>153.1522777626545</v>
       </c>
       <c r="L41" t="n">
-        <v>414.2085871520686</v>
+        <v>242.8036175004285</v>
       </c>
       <c r="M41" t="n">
-        <v>286.9400960743084</v>
+        <v>468.2921541265895</v>
       </c>
       <c r="N41" t="n">
-        <v>276.803291314604</v>
+        <v>467.081001753563</v>
       </c>
       <c r="O41" t="n">
         <v>215.7334201543362</v>
@@ -37801,10 +37801,10 @@
         <v>31.68962086627929</v>
       </c>
       <c r="R41" t="n">
-        <v>84.3967882403591</v>
+        <v>84.39678824035913</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.795976193737493</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -38011,10 +38011,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>14.42495898833109</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>230.830130134373</v>
+        <v>20.80935510103537</v>
       </c>
       <c r="K44" t="n">
         <v>153.1522777626545</v>
@@ -38026,22 +38026,22 @@
         <v>286.9400960743084</v>
       </c>
       <c r="N44" t="n">
-        <v>276.803291314604</v>
+        <v>452.8372437608379</v>
       </c>
       <c r="O44" t="n">
         <v>215.7334201543362</v>
       </c>
       <c r="P44" t="n">
-        <v>182.053557367742</v>
+        <v>356.0893257361557</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.7103958996169</v>
+        <v>31.68962086627929</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>84.39678824035913</v>
       </c>
       <c r="S44" t="n">
-        <v>9.795976193737465</v>
+        <v>9.795976193737493</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
